--- a/xlsForms/Encuesta 1 Ficha Predial.xlsx
+++ b/xlsForms/Encuesta 1 Ficha Predial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262B835B-8898-4554-97B2-EFF120499CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F341D9C7-0085-4FC2-9244-1D01BA2684C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="669">
   <si>
     <t>type</t>
   </si>
@@ -1005,9 +1005,6 @@
   </si>
   <si>
     <t>coordenadas</t>
-  </si>
-  <si>
-    <t>Coordenadas:</t>
   </si>
   <si>
     <t>nombre_establecimiento</t>
@@ -2022,6 +2019,39 @@
   </si>
   <si>
     <t>Punto GPS</t>
+  </si>
+  <si>
+    <t>punto_gps2</t>
+  </si>
+  <si>
+    <t>Punto GPS Coordenada de vivienda o punto de encuesta</t>
+  </si>
+  <si>
+    <t>servicios_hidrocarburos</t>
+  </si>
+  <si>
+    <t>Servicios prestados a hidrocarburos</t>
+  </si>
+  <si>
+    <t>mineria</t>
+  </si>
+  <si>
+    <t>Minería</t>
+  </si>
+  <si>
+    <t>Punto GPS Coordenadas Origen Nacional</t>
+  </si>
+  <si>
+    <t>Coordenadas Origen Nacional</t>
+  </si>
+  <si>
+    <t>coordenadas_act</t>
+  </si>
+  <si>
+    <t>Coordenadas</t>
+  </si>
+  <si>
+    <t>punto_gps3</t>
   </si>
 </sst>
 </file>
@@ -2105,7 +2135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2130,7 +2160,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2163,14 +2192,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2208,9 +2233,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2243,26 +2268,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2295,26 +2303,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2488,13 +2479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L178"/>
+  <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
@@ -2509,42 +2500,42 @@
     <col min="12" max="12" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
-        <v>634</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>639</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>645</v>
+      <c r="J1" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2563,7 +2554,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
-      <c r="K2" s="12"/>
+      <c r="K2" s="11"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -2607,7 +2598,7 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2624,7 +2615,7 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2641,7 +2632,7 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2658,12 +2649,12 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -2674,8 +2665,8 @@
       <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>633</v>
+      <c r="G9" s="10" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2965,13 +2956,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>656</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>659</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -2979,30 +2970,27 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -3013,44 +3001,44 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
-      </c>
-      <c r="E34" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -3061,44 +3049,44 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
+      </c>
+      <c r="E36" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
-      </c>
-      <c r="E37" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -3109,44 +3097,44 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
+      </c>
+      <c r="E39" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
-      </c>
-      <c r="E40" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -3157,27 +3145,30 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
+      </c>
+      <c r="E42" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -3185,52 +3176,52 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>65</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>103</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C45" t="s">
         <v>104</v>
       </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>106</v>
+      <c r="D45" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" t="s">
-        <v>110</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -3238,41 +3229,41 @@
         <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
-      </c>
-      <c r="E48" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
+      </c>
+      <c r="E49" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="B50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
@@ -3280,75 +3271,75 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
-      </c>
-      <c r="E51" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C52" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C53" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
-      </c>
-      <c r="E53" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B54" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C54" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
+      </c>
+      <c r="E54" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -3356,52 +3347,52 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>132</v>
+      </c>
+      <c r="B56" t="s">
+        <v>133</v>
+      </c>
+      <c r="C56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>16</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>135</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>136</v>
       </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>138</v>
+      <c r="D57" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C59" s="3" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" t="s">
-        <v>142</v>
-      </c>
-      <c r="C59" t="s">
-        <v>143</v>
-      </c>
-      <c r="D59" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -3409,10 +3400,10 @@
         <v>141</v>
       </c>
       <c r="B60" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -3420,13 +3411,13 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>141</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
@@ -3437,10 +3428,10 @@
         <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
@@ -3451,10 +3442,10 @@
         <v>16</v>
       </c>
       <c r="B63" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D63" t="s">
         <v>15</v>
@@ -3465,10 +3456,10 @@
         <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C64" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -3479,10 +3470,10 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C65" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -3493,10 +3484,10 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C66" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -3507,10 +3498,10 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
         <v>15</v>
@@ -3518,13 +3509,13 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C68" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D68" t="s">
         <v>15</v>
@@ -3532,13 +3523,13 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
         <v>15</v>
@@ -3549,10 +3540,10 @@
         <v>35</v>
       </c>
       <c r="B70" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C70" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D70" t="s">
         <v>15</v>
@@ -3563,10 +3554,10 @@
         <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
@@ -3574,13 +3565,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="B72" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C72" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
         <v>15</v>
@@ -3588,13 +3579,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="B73" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C73" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
@@ -3605,88 +3596,88 @@
         <v>16</v>
       </c>
       <c r="B74" t="s">
+        <v>171</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" t="s">
         <v>173</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>174</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C77" s="3" t="s">
         <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>160</v>
-      </c>
-      <c r="B77" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" t="s">
-        <v>180</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D78" t="s">
         <v>15</v>
-      </c>
-      <c r="F78" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>16</v>
+        <v>181</v>
       </c>
       <c r="B79" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C79" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D79" t="s">
         <v>15</v>
+      </c>
+      <c r="F79" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="B80" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
         <v>15</v>
@@ -3694,30 +3685,27 @@
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D81" t="s">
         <v>15</v>
-      </c>
-      <c r="G81" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D82" t="s">
         <v>15</v>
@@ -3728,16 +3716,19 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>193</v>
       </c>
       <c r="B83" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C83" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D83" t="s">
         <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -3745,10 +3736,10 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C84" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D84" t="s">
         <v>15</v>
@@ -3756,13 +3747,13 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C85" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D85" t="s">
         <v>15</v>
@@ -3770,13 +3761,13 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B86" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D86" t="s">
         <v>15</v>
@@ -3784,47 +3775,41 @@
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>203</v>
+      </c>
+      <c r="B87" t="s">
+        <v>204</v>
+      </c>
+      <c r="C87" t="s">
+        <v>205</v>
+      </c>
+      <c r="D87" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>16</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>206</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>207</v>
       </c>
-      <c r="D87" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B88" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C88" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
+      <c r="D88" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -3837,34 +3822,37 @@
       <c r="L89" s="3"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>160</v>
-      </c>
-      <c r="B90" t="s">
-        <v>212</v>
-      </c>
-      <c r="C90" t="s">
-        <v>213</v>
-      </c>
-      <c r="D90" t="s">
-        <v>15</v>
-      </c>
+      <c r="A90" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>160</v>
       </c>
       <c r="B91" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C91" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D91" t="s">
         <v>15</v>
-      </c>
-      <c r="H91" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
@@ -3872,24 +3860,27 @@
         <v>160</v>
       </c>
       <c r="B92" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C92" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D92" t="s">
         <v>15</v>
+      </c>
+      <c r="H92" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C93" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D93" t="s">
         <v>15</v>
@@ -3897,13 +3888,13 @@
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>219</v>
       </c>
       <c r="B94" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C94" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D94" t="s">
         <v>15</v>
@@ -3914,68 +3905,52 @@
         <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C95" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D95" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C96" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D96" t="s">
         <v>15</v>
       </c>
-      <c r="E96"/>
-      <c r="F96"/>
-      <c r="G96"/>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96"/>
-      <c r="K96"/>
-      <c r="L96"/>
-    </row>
-    <row r="97" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D97" t="s">
         <v>15</v>
       </c>
-      <c r="E97"/>
-      <c r="F97"/>
-      <c r="G97"/>
-      <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97"/>
-      <c r="K97"/>
-      <c r="L97"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
       <c r="B98" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C98" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D98" t="s">
         <v>15</v>
@@ -3983,84 +3958,84 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="B99" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C99" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D99" t="s">
         <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>235</v>
-      </c>
-      <c r="I99" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>232</v>
+      </c>
+      <c r="B100" t="s">
+        <v>233</v>
+      </c>
+      <c r="C100" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" t="s">
+        <v>235</v>
+      </c>
+      <c r="I100" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>16</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B101" t="s">
         <v>237</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>238</v>
       </c>
-      <c r="D100" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="3" t="s">
+      <c r="D101" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C102" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3"/>
+      <c r="I102" s="3"/>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B103" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I103" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>35</v>
-      </c>
-      <c r="B103" t="s">
-        <v>245</v>
-      </c>
-      <c r="C103" t="s">
-        <v>246</v>
-      </c>
-      <c r="D103" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -4068,10 +4043,10 @@
         <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C104" t="s">
-        <v>603</v>
+        <v>246</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
@@ -4079,10 +4054,10 @@
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B105" t="s">
-        <v>601</v>
+        <v>247</v>
       </c>
       <c r="C105" t="s">
         <v>602</v>
@@ -4092,50 +4067,50 @@
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="3" t="s">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106" t="s">
+        <v>600</v>
+      </c>
+      <c r="C106" t="s">
+        <v>601</v>
+      </c>
+      <c r="D106" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C107" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3" t="s">
-        <v>600</v>
-      </c>
-      <c r="F106" s="3"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
-      <c r="K106" s="3"/>
-      <c r="L106" s="3"/>
-    </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>16</v>
-      </c>
-      <c r="B107" t="s">
-        <v>248</v>
-      </c>
-      <c r="C107" t="s">
-        <v>249</v>
-      </c>
-      <c r="D107" t="s">
-        <v>15</v>
-      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F107" s="3"/>
+      <c r="G107" s="3"/>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C108" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
@@ -4146,10 +4121,10 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>648</v>
+        <v>250</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>251</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
@@ -4160,10 +4135,10 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>252</v>
+        <v>647</v>
       </c>
       <c r="C110" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
@@ -4171,13 +4146,13 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C111" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
@@ -4185,13 +4160,16 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>254</v>
       </c>
       <c r="B112" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C112" t="s">
-        <v>258</v>
+        <v>256</v>
+      </c>
+      <c r="D112" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
@@ -4199,10 +4177,10 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C113" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
@@ -4210,85 +4188,88 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>16</v>
+      </c>
+      <c r="B114" t="s">
+        <v>259</v>
+      </c>
+      <c r="C114" t="s">
+        <v>260</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>261</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B115" t="s">
         <v>262</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>263</v>
       </c>
-      <c r="D114" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="17" t="s">
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B115" s="17" t="s">
+      <c r="B116" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C115" s="17" t="s">
+      <c r="C116" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="F115" s="17" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>266</v>
-      </c>
-      <c r="B116" t="s">
-        <v>267</v>
-      </c>
-      <c r="H116" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+      <c r="F116" s="16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>266</v>
       </c>
       <c r="B117" t="s">
+        <v>267</v>
+      </c>
+      <c r="H117" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>266</v>
+      </c>
+      <c r="B118" t="s">
         <v>268</v>
       </c>
-      <c r="H117" s="9" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>269</v>
-      </c>
-      <c r="B118" t="s">
-        <v>270</v>
-      </c>
-      <c r="C118" t="s">
-        <v>271</v>
+      <c r="H118" s="9" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B119" t="s">
-        <v>598</v>
+        <v>270</v>
       </c>
       <c r="C119" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>65</v>
+        <v>272</v>
       </c>
       <c r="B120" t="s">
-        <v>275</v>
+        <v>597</v>
       </c>
       <c r="C120" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -4296,10 +4277,10 @@
         <v>65</v>
       </c>
       <c r="B121" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C121" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -4307,32 +4288,32 @@
         <v>65</v>
       </c>
       <c r="B122" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C122" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B123" t="s">
-        <v>657</v>
+        <v>279</v>
       </c>
       <c r="C123" t="s">
-        <v>658</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="B124" t="s">
-        <v>281</v>
+        <v>666</v>
       </c>
       <c r="C124" t="s">
-        <v>282</v>
+        <v>667</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
@@ -4340,261 +4321,247 @@
         <v>16</v>
       </c>
       <c r="B125" t="s">
-        <v>283</v>
+        <v>658</v>
       </c>
       <c r="C125" t="s">
-        <v>284</v>
+        <v>657</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="B126" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C126" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B127" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C127" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>16</v>
+      </c>
+      <c r="B128" t="s">
+        <v>285</v>
+      </c>
+      <c r="C128" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>9</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B129" t="s">
+        <v>287</v>
+      </c>
+      <c r="C129" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>9</v>
+      </c>
+      <c r="B130" t="s">
         <v>289</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C130" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>232</v>
-      </c>
-      <c r="B129" t="s">
-        <v>291</v>
-      </c>
-      <c r="C129" t="s">
-        <v>292</v>
-      </c>
-      <c r="I129" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>232</v>
-      </c>
-      <c r="B130" t="s">
-        <v>293</v>
-      </c>
-      <c r="C130" t="s">
-        <v>294</v>
-      </c>
-      <c r="I130" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>232</v>
       </c>
       <c r="B131" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C131" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I131" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>232</v>
+      </c>
+      <c r="B132" t="s">
+        <v>293</v>
+      </c>
+      <c r="C132" t="s">
+        <v>294</v>
+      </c>
+      <c r="I132" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>232</v>
+      </c>
+      <c r="B133" t="s">
+        <v>295</v>
+      </c>
+      <c r="C133" t="s">
+        <v>296</v>
+      </c>
+      <c r="I133" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>9</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B135" t="s">
         <v>297</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C135" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>232</v>
-      </c>
-      <c r="B134" t="s">
-        <v>299</v>
-      </c>
-      <c r="C134" t="s">
-        <v>292</v>
-      </c>
-      <c r="I134" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>232</v>
-      </c>
-      <c r="B135" t="s">
-        <v>300</v>
-      </c>
-      <c r="C135" t="s">
-        <v>294</v>
-      </c>
-      <c r="I135" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>232</v>
       </c>
       <c r="B136" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C136" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I136" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>232</v>
+      </c>
+      <c r="B137" t="s">
+        <v>300</v>
+      </c>
+      <c r="C137" t="s">
+        <v>294</v>
+      </c>
+      <c r="I137" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>232</v>
+      </c>
+      <c r="B138" t="s">
+        <v>301</v>
+      </c>
+      <c r="C138" t="s">
+        <v>296</v>
+      </c>
+      <c r="I138" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>9</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B140" t="s">
         <v>302</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C140" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>232</v>
-      </c>
-      <c r="B139" t="s">
-        <v>304</v>
-      </c>
-      <c r="C139" t="s">
-        <v>292</v>
-      </c>
-      <c r="I139" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>232</v>
-      </c>
-      <c r="B140" t="s">
-        <v>305</v>
-      </c>
-      <c r="C140" t="s">
-        <v>294</v>
-      </c>
-      <c r="I140" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>232</v>
       </c>
       <c r="B141" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C141" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="I141" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>232</v>
+      </c>
+      <c r="B142" t="s">
+        <v>305</v>
+      </c>
+      <c r="C142" t="s">
+        <v>294</v>
+      </c>
+      <c r="I142" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>232</v>
+      </c>
+      <c r="B143" t="s">
+        <v>306</v>
+      </c>
+      <c r="C143" t="s">
+        <v>296</v>
+      </c>
+      <c r="I143" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-      <c r="G144" s="3"/>
-      <c r="H144" s="3"/>
-      <c r="I144" s="3"/>
-      <c r="J144" s="3"/>
-      <c r="K144" s="3"/>
-      <c r="L144" s="3"/>
-    </row>
-    <row r="145" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>35</v>
-      </c>
-      <c r="B145" t="s">
-        <v>311</v>
-      </c>
-      <c r="C145" t="s">
-        <v>312</v>
-      </c>
-      <c r="D145" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D146" s="3"/>
-      <c r="E146" s="3" t="s">
-        <v>599</v>
-      </c>
+      <c r="E146" s="3"/>
       <c r="F146" s="3"/>
       <c r="G146" s="3"/>
       <c r="H146" s="3"/>
@@ -4605,41 +4572,49 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B147" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C147" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D147" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>35</v>
-      </c>
-      <c r="B148" t="s">
-        <v>320</v>
-      </c>
-      <c r="C148" t="s">
-        <v>321</v>
-      </c>
-      <c r="D148" t="s">
-        <v>15</v>
-      </c>
+      <c r="A148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C149" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
@@ -4647,53 +4622,44 @@
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B150" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C150" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
-      </c>
-      <c r="E150" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B151" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C151" t="s">
-        <v>328</v>
+        <v>665</v>
       </c>
       <c r="D151" t="s">
         <v>15</v>
-      </c>
-      <c r="E151" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="B152" t="s">
-        <v>329</v>
+        <v>668</v>
       </c>
       <c r="C152" t="s">
-        <v>330</v>
+        <v>664</v>
       </c>
       <c r="D152" t="s">
         <v>15</v>
-      </c>
-      <c r="E152" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -4701,50 +4667,50 @@
         <v>16</v>
       </c>
       <c r="B153" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C153" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D153" t="s">
         <v>15</v>
       </c>
       <c r="E153" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="B154" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="C154" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="D154" t="s">
         <v>15</v>
       </c>
       <c r="E154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="C155" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="D155" t="s">
         <v>15</v>
       </c>
       <c r="E155" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.25">
@@ -4752,33 +4718,33 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="C156" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="D156" t="s">
         <v>15</v>
       </c>
       <c r="E156" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="C157" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="D157" t="s">
         <v>15</v>
       </c>
       <c r="E157" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -4786,16 +4752,16 @@
         <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="C158" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="D158" t="s">
         <v>15</v>
       </c>
       <c r="E158" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
@@ -4803,16 +4769,16 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="C159" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="D159" t="s">
         <v>15</v>
       </c>
       <c r="E159" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -4820,50 +4786,50 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="C160" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="D160" t="s">
         <v>15</v>
       </c>
       <c r="E160" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>347</v>
+        <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C161" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="D161" t="s">
         <v>15</v>
       </c>
       <c r="E161" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>350</v>
+        <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>273</v>
+        <v>342</v>
       </c>
       <c r="C162" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D162" t="s">
         <v>15</v>
       </c>
       <c r="E162" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -4871,50 +4837,50 @@
         <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C163" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D163" t="s">
         <v>15</v>
       </c>
       <c r="E163" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B164" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C164" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D164" t="s">
         <v>15</v>
       </c>
       <c r="E164" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>65</v>
+        <v>349</v>
       </c>
       <c r="B165" t="s">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="C165" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="D165" t="s">
         <v>15</v>
       </c>
       <c r="E165" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -4922,138 +4888,141 @@
         <v>16</v>
       </c>
       <c r="B166" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C166" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="D166" t="s">
         <v>15</v>
       </c>
       <c r="E166" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B167" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C167" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="D167" t="s">
         <v>15</v>
       </c>
       <c r="E167" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>365</v>
+        <v>65</v>
       </c>
       <c r="B168" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="C168" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="D168" t="s">
         <v>15</v>
       </c>
       <c r="E168" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>640</v>
+        <v>16</v>
       </c>
       <c r="B169" t="s">
-        <v>641</v>
+        <v>359</v>
       </c>
       <c r="C169" t="s">
-        <v>643</v>
+        <v>360</v>
+      </c>
+      <c r="D169" t="s">
+        <v>15</v>
       </c>
       <c r="E169" t="s">
-        <v>326</v>
-      </c>
-      <c r="L169" t="s">
-        <v>646</v>
+        <v>325</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>640</v>
+        <v>361</v>
       </c>
       <c r="B170" t="s">
-        <v>642</v>
+        <v>362</v>
       </c>
       <c r="C170" t="s">
-        <v>644</v>
+        <v>363</v>
       </c>
       <c r="D170" t="s">
         <v>15</v>
       </c>
       <c r="E170" t="s">
-        <v>326</v>
-      </c>
-      <c r="L170" t="s">
-        <v>647</v>
+        <v>325</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>35</v>
+        <v>364</v>
       </c>
       <c r="B171" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C171" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D171" t="s">
         <v>15</v>
       </c>
       <c r="E171" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>370</v>
+        <v>639</v>
       </c>
       <c r="B172" t="s">
-        <v>371</v>
+        <v>640</v>
       </c>
       <c r="C172" t="s">
-        <v>372</v>
+        <v>642</v>
       </c>
       <c r="D172" t="s">
         <v>15</v>
       </c>
       <c r="E172" t="s">
-        <v>326</v>
+        <v>325</v>
+      </c>
+      <c r="L172" t="s">
+        <v>645</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>639</v>
       </c>
       <c r="B173" t="s">
-        <v>373</v>
+        <v>641</v>
       </c>
       <c r="C173" t="s">
-        <v>374</v>
+        <v>643</v>
       </c>
       <c r="D173" t="s">
         <v>15</v>
       </c>
       <c r="E173" t="s">
-        <v>326</v>
+        <v>325</v>
+      </c>
+      <c r="L173" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -5061,85 +5030,139 @@
         <v>35</v>
       </c>
       <c r="B174" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C174" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="D174" t="s">
         <v>15</v>
       </c>
       <c r="E174" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>16</v>
+        <v>369</v>
       </c>
       <c r="B175" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C175" t="s">
-        <v>378</v>
+        <v>371</v>
+      </c>
+      <c r="D175" t="s">
+        <v>15</v>
       </c>
       <c r="E175" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>380</v>
+        <v>35</v>
       </c>
       <c r="B176" t="s">
-        <v>217</v>
+        <v>372</v>
       </c>
       <c r="C176" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="D176" t="s">
         <v>15</v>
       </c>
       <c r="E176" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>35</v>
+      </c>
+      <c r="B177" t="s">
+        <v>374</v>
+      </c>
+      <c r="C177" t="s">
+        <v>375</v>
+      </c>
+      <c r="D177" t="s">
+        <v>15</v>
+      </c>
+      <c r="E177" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>16</v>
+      </c>
+      <c r="B178" t="s">
+        <v>376</v>
+      </c>
+      <c r="C178" t="s">
+        <v>377</v>
+      </c>
+      <c r="D178" t="s">
+        <v>15</v>
+      </c>
+      <c r="E178" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>379</v>
+      </c>
+      <c r="B179" t="s">
+        <v>217</v>
+      </c>
+      <c r="C179" t="s">
+        <v>380</v>
+      </c>
+      <c r="D179" t="s">
+        <v>15</v>
+      </c>
+      <c r="E179" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>65</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B180" t="s">
+        <v>381</v>
+      </c>
+      <c r="C180" t="s">
         <v>382</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D180" t="s">
+        <v>15</v>
+      </c>
+      <c r="E180" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="D177" t="s">
-        <v>15</v>
-      </c>
-      <c r="E177" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A178" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B178" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C178" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-      <c r="J178" s="3"/>
-      <c r="K178" s="3"/>
-      <c r="L178" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5149,13 +5172,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H65" sqref="H65"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
@@ -5164,7 +5187,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5178,10 +5201,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" t="s">
         <v>387</v>
-      </c>
-      <c r="C2" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5189,10 +5212,10 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C3" t="s">
         <v>389</v>
-      </c>
-      <c r="C3" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5200,10 +5223,10 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
+        <v>390</v>
+      </c>
+      <c r="C4" t="s">
         <v>391</v>
-      </c>
-      <c r="C4" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5211,109 +5234,109 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C5" t="s">
         <v>393</v>
-      </c>
-      <c r="C5" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>395</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" t="s">
         <v>397</v>
-      </c>
-      <c r="C7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B8" t="s">
         <v>399</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>400</v>
-      </c>
-      <c r="C8" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C9" t="s">
         <v>402</v>
-      </c>
-      <c r="C9" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s">
+        <v>403</v>
+      </c>
+      <c r="C10" t="s">
         <v>404</v>
-      </c>
-      <c r="C10" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" t="s">
         <v>406</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>407</v>
-      </c>
-      <c r="C11" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" t="s">
         <v>409</v>
-      </c>
-      <c r="C12" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C13" t="s">
         <v>411</v>
-      </c>
-      <c r="C13" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B14" t="s">
+        <v>412</v>
+      </c>
+      <c r="C14" t="s">
         <v>413</v>
-      </c>
-      <c r="C14" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5321,10 +5344,10 @@
         <v>120</v>
       </c>
       <c r="B15" t="s">
+        <v>414</v>
+      </c>
+      <c r="C15" t="s">
         <v>415</v>
-      </c>
-      <c r="C15" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5332,10 +5355,10 @@
         <v>120</v>
       </c>
       <c r="B16" t="s">
+        <v>416</v>
+      </c>
+      <c r="C16" t="s">
         <v>417</v>
-      </c>
-      <c r="C16" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5343,10 +5366,10 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" t="s">
         <v>419</v>
-      </c>
-      <c r="C17" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5354,10 +5377,10 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
+        <v>420</v>
+      </c>
+      <c r="C18" t="s">
         <v>421</v>
-      </c>
-      <c r="C18" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5365,10 +5388,10 @@
         <v>126</v>
       </c>
       <c r="B19" t="s">
+        <v>422</v>
+      </c>
+      <c r="C19" t="s">
         <v>423</v>
-      </c>
-      <c r="C19" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5376,10 +5399,10 @@
         <v>126</v>
       </c>
       <c r="B20" t="s">
+        <v>424</v>
+      </c>
+      <c r="C20" t="s">
         <v>425</v>
-      </c>
-      <c r="C20" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5387,10 +5410,10 @@
         <v>126</v>
       </c>
       <c r="B21" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" t="s">
         <v>427</v>
-      </c>
-      <c r="C21" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5398,10 +5421,10 @@
         <v>126</v>
       </c>
       <c r="B22" t="s">
+        <v>428</v>
+      </c>
+      <c r="C22" t="s">
         <v>429</v>
-      </c>
-      <c r="C22" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5409,10 +5432,10 @@
         <v>130</v>
       </c>
       <c r="B23" t="s">
+        <v>430</v>
+      </c>
+      <c r="C23" t="s">
         <v>431</v>
-      </c>
-      <c r="C23" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5420,10 +5443,10 @@
         <v>130</v>
       </c>
       <c r="B24" t="s">
+        <v>432</v>
+      </c>
+      <c r="C24" t="s">
         <v>433</v>
-      </c>
-      <c r="C24" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5431,10 +5454,10 @@
         <v>130</v>
       </c>
       <c r="B25" t="s">
+        <v>434</v>
+      </c>
+      <c r="C25" t="s">
         <v>435</v>
-      </c>
-      <c r="C25" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5442,10 +5465,10 @@
         <v>130</v>
       </c>
       <c r="B26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C26" t="s">
         <v>437</v>
-      </c>
-      <c r="C26" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5453,10 +5476,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="s">
+        <v>438</v>
+      </c>
+      <c r="C27" t="s">
         <v>439</v>
-      </c>
-      <c r="C27" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5464,10 +5487,10 @@
         <v>133</v>
       </c>
       <c r="B28" t="s">
+        <v>440</v>
+      </c>
+      <c r="C28" t="s">
         <v>441</v>
-      </c>
-      <c r="C28" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5475,10 +5498,10 @@
         <v>133</v>
       </c>
       <c r="B29" t="s">
+        <v>442</v>
+      </c>
+      <c r="C29" t="s">
         <v>443</v>
-      </c>
-      <c r="C29" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5486,54 +5509,54 @@
         <v>133</v>
       </c>
       <c r="B30" t="s">
+        <v>444</v>
+      </c>
+      <c r="C30" t="s">
         <v>445</v>
-      </c>
-      <c r="C30" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>446</v>
+      </c>
+      <c r="B31" t="s">
         <v>447</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>448</v>
-      </c>
-      <c r="C31" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B32" t="s">
+        <v>449</v>
+      </c>
+      <c r="C32" t="s">
         <v>450</v>
-      </c>
-      <c r="C32" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>451</v>
+      </c>
+      <c r="B33" t="s">
         <v>452</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>453</v>
-      </c>
-      <c r="C33" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B34" t="s">
+        <v>454</v>
+      </c>
+      <c r="C34" t="s">
         <v>455</v>
-      </c>
-      <c r="C34" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5541,10 +5564,10 @@
         <v>190</v>
       </c>
       <c r="B35" t="s">
+        <v>456</v>
+      </c>
+      <c r="C35" t="s">
         <v>457</v>
-      </c>
-      <c r="C35" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5552,10 +5575,10 @@
         <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5563,10 +5586,10 @@
         <v>194</v>
       </c>
       <c r="B37" t="s">
+        <v>459</v>
+      </c>
+      <c r="C37" t="s">
         <v>460</v>
-      </c>
-      <c r="C37" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5574,10 +5597,10 @@
         <v>194</v>
       </c>
       <c r="B38" t="s">
+        <v>461</v>
+      </c>
+      <c r="C38" t="s">
         <v>462</v>
-      </c>
-      <c r="C38" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5585,10 +5608,10 @@
         <v>194</v>
       </c>
       <c r="B39" t="s">
+        <v>463</v>
+      </c>
+      <c r="C39" t="s">
         <v>464</v>
-      </c>
-      <c r="C39" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5596,10 +5619,10 @@
         <v>194</v>
       </c>
       <c r="B40" t="s">
+        <v>465</v>
+      </c>
+      <c r="C40" t="s">
         <v>466</v>
-      </c>
-      <c r="C40" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5607,10 +5630,10 @@
         <v>204</v>
       </c>
       <c r="B41" t="s">
+        <v>467</v>
+      </c>
+      <c r="C41" t="s">
         <v>468</v>
-      </c>
-      <c r="C41" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5618,10 +5641,10 @@
         <v>204</v>
       </c>
       <c r="B42" t="s">
+        <v>469</v>
+      </c>
+      <c r="C42" t="s">
         <v>470</v>
-      </c>
-      <c r="C42" t="s">
-        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5629,10 +5652,10 @@
         <v>204</v>
       </c>
       <c r="B43" t="s">
+        <v>471</v>
+      </c>
+      <c r="C43" t="s">
         <v>472</v>
-      </c>
-      <c r="C43" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5640,10 +5663,10 @@
         <v>220</v>
       </c>
       <c r="B44" t="s">
+        <v>473</v>
+      </c>
+      <c r="C44" t="s">
         <v>474</v>
-      </c>
-      <c r="C44" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5651,10 +5674,10 @@
         <v>220</v>
       </c>
       <c r="B45" t="s">
+        <v>475</v>
+      </c>
+      <c r="C45" t="s">
         <v>476</v>
-      </c>
-      <c r="C45" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5662,10 +5685,10 @@
         <v>220</v>
       </c>
       <c r="B46" t="s">
+        <v>477</v>
+      </c>
+      <c r="C46" t="s">
         <v>478</v>
-      </c>
-      <c r="C46" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5673,59 +5696,59 @@
         <v>220</v>
       </c>
       <c r="B47" t="s">
+        <v>479</v>
+      </c>
+      <c r="C47" t="s">
         <v>480</v>
-      </c>
-      <c r="C47" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B48" t="s">
+        <v>481</v>
+      </c>
+      <c r="C48" t="s">
         <v>482</v>
-      </c>
-      <c r="C48" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s">
+        <v>483</v>
+      </c>
+      <c r="C49" t="s">
         <v>484</v>
-      </c>
-      <c r="C49" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B50" t="s">
+        <v>485</v>
+      </c>
+      <c r="C50" t="s">
         <v>486</v>
-      </c>
-      <c r="C50" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B51" t="s">
+        <v>487</v>
+      </c>
+      <c r="C51" t="s">
         <v>488</v>
-      </c>
-      <c r="C51" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B52" t="s">
         <v>250</v>
@@ -5736,13 +5759,13 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B53" t="s">
+        <v>489</v>
+      </c>
+      <c r="C53" t="s">
         <v>490</v>
-      </c>
-      <c r="C53" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -5750,10 +5773,10 @@
         <v>273</v>
       </c>
       <c r="B54" t="s">
+        <v>491</v>
+      </c>
+      <c r="C54" t="s">
         <v>492</v>
-      </c>
-      <c r="C54" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -5761,10 +5784,10 @@
         <v>273</v>
       </c>
       <c r="B55" t="s">
+        <v>493</v>
+      </c>
+      <c r="C55" t="s">
         <v>494</v>
-      </c>
-      <c r="C55" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -5772,10 +5795,10 @@
         <v>273</v>
       </c>
       <c r="B56" t="s">
+        <v>495</v>
+      </c>
+      <c r="C56" t="s">
         <v>496</v>
-      </c>
-      <c r="C56" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -5783,10 +5806,10 @@
         <v>273</v>
       </c>
       <c r="B57" t="s">
+        <v>497</v>
+      </c>
+      <c r="C57" t="s">
         <v>498</v>
-      </c>
-      <c r="C57" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -5794,10 +5817,10 @@
         <v>273</v>
       </c>
       <c r="B58" t="s">
+        <v>499</v>
+      </c>
+      <c r="C58" t="s">
         <v>500</v>
-      </c>
-      <c r="C58" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -5805,10 +5828,10 @@
         <v>273</v>
       </c>
       <c r="B59" t="s">
+        <v>501</v>
+      </c>
+      <c r="C59" t="s">
         <v>502</v>
-      </c>
-      <c r="C59" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -5816,208 +5839,208 @@
         <v>273</v>
       </c>
       <c r="B60" t="s">
+        <v>503</v>
+      </c>
+      <c r="C60" t="s">
         <v>504</v>
-      </c>
-      <c r="C60" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>506</v>
+        <v>273</v>
       </c>
       <c r="B61" t="s">
-        <v>387</v>
+        <v>660</v>
       </c>
       <c r="C61" t="s">
-        <v>388</v>
+        <v>661</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>506</v>
+        <v>273</v>
       </c>
       <c r="B62" t="s">
-        <v>507</v>
+        <v>662</v>
       </c>
       <c r="C62" t="s">
-        <v>508</v>
+        <v>663</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B63" t="s">
-        <v>509</v>
+        <v>386</v>
       </c>
       <c r="C63" t="s">
-        <v>510</v>
+        <v>387</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B64" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="C64" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B65" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="C65" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>510</v>
+      </c>
+      <c r="B66" t="s">
         <v>511</v>
       </c>
-      <c r="B66" t="s">
-        <v>516</v>
-      </c>
       <c r="C66" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B67" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C67" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B68" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C68" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>366</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>649</v>
-      </c>
-      <c r="C69" s="16" t="s">
-        <v>650</v>
+        <v>510</v>
+      </c>
+      <c r="B69" t="s">
+        <v>517</v>
+      </c>
+      <c r="C69" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>366</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>651</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>652</v>
+        <v>510</v>
+      </c>
+      <c r="B70" t="s">
+        <v>519</v>
+      </c>
+      <c r="C70" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>366</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>653</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>654</v>
+        <v>365</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>366</v>
-      </c>
-      <c r="B72" s="16" t="s">
-        <v>655</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>656</v>
+        <v>365</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>371</v>
-      </c>
-      <c r="B73" t="s">
-        <v>522</v>
-      </c>
-      <c r="C73" t="s">
-        <v>523</v>
+        <v>365</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>652</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>371</v>
-      </c>
-      <c r="B74" t="s">
-        <v>524</v>
-      </c>
-      <c r="C74" t="s">
-        <v>525</v>
+        <v>365</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B75" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C75" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B76" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C76" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>217</v>
-      </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
+        <v>370</v>
+      </c>
+      <c r="B77" t="s">
+        <v>525</v>
+      </c>
+      <c r="C77" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>217</v>
-      </c>
-      <c r="B78">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
+        <v>370</v>
+      </c>
+      <c r="B78" t="s">
+        <v>527</v>
+      </c>
+      <c r="C78" t="s">
+        <v>528</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6025,340 +6048,340 @@
         <v>217</v>
       </c>
       <c r="B79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>539</v>
-      </c>
-      <c r="B80" t="s">
-        <v>540</v>
-      </c>
-      <c r="C80" t="s">
-        <v>541</v>
+        <v>217</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>539</v>
-      </c>
-      <c r="B81" t="s">
-        <v>542</v>
-      </c>
-      <c r="C81" t="s">
-        <v>543</v>
+        <v>217</v>
+      </c>
+      <c r="B81">
+        <v>3</v>
+      </c>
+      <c r="C81">
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>538</v>
+      </c>
+      <c r="B82" t="s">
         <v>539</v>
       </c>
-      <c r="B82" t="s">
-        <v>544</v>
-      </c>
       <c r="C82" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B83" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C83" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B84" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C84" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B85" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C85" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B86" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C86" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B87" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C87" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B88" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="C88" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B89" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C89" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B90" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C90" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B91" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C91" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B92" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="C92" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B93" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="C93" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="B94" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="C94" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="B95" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C95" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>567</v>
+      </c>
+      <c r="B96" t="s">
         <v>568</v>
       </c>
-      <c r="B96" t="s">
-        <v>573</v>
-      </c>
       <c r="C96" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B97" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C97" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B98" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C98" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B99" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C99" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B100" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C100" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B101" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C101" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B102" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C102" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B103" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C103" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="B104" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="C104" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>589</v>
+        <v>567</v>
       </c>
       <c r="B105" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="C105" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>588</v>
+      </c>
+      <c r="B106" t="s">
         <v>589</v>
       </c>
-      <c r="B106" t="s">
-        <v>594</v>
-      </c>
       <c r="C106" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B107" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C107" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>23</v>
+        <v>588</v>
       </c>
       <c r="B108" t="s">
-        <v>610</v>
+        <v>593</v>
       </c>
       <c r="C108" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>23</v>
+        <v>588</v>
       </c>
       <c r="B109" t="s">
-        <v>611</v>
+        <v>595</v>
       </c>
       <c r="C109" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -6366,10 +6389,10 @@
         <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C110" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -6377,10 +6400,10 @@
         <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="C111" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -6388,10 +6411,10 @@
         <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C112" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -6399,10 +6422,10 @@
         <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C113" t="s">
-        <v>624</v>
+        <v>607</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -6410,10 +6433,10 @@
         <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C114" t="s">
-        <v>625</v>
+        <v>608</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -6421,10 +6444,10 @@
         <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C115" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -6432,10 +6455,10 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C116" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -6443,10 +6466,10 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C117" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -6454,10 +6477,10 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C118" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -6465,10 +6488,10 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="C119" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -6476,10 +6499,10 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C120" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -6487,10 +6510,32 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="C121" t="s">
-        <v>632</v>
+        <v>629</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>23</v>
+      </c>
+      <c r="B122" t="s">
+        <v>621</v>
+      </c>
+      <c r="C122" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>23</v>
+      </c>
+      <c r="B123" t="s">
+        <v>622</v>
+      </c>
+      <c r="C123" t="s">
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -6506,7 +6551,7 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
@@ -6515,24 +6560,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>530</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>531</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>532</v>
+      </c>
+      <c r="B2" t="s">
         <v>533</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>534</v>
-      </c>
-      <c r="C2" t="s">
-        <v>535</v>
       </c>
     </row>
   </sheetData>

--- a/xlsForms/Encuesta 1 Ficha Predial.xlsx
+++ b/xlsForms/Encuesta 1 Ficha Predial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F341D9C7-0085-4FC2-9244-1D01BA2684C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8662B31-8F6B-404B-AA11-0138AD5AE5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1113" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="670">
   <si>
     <t>type</t>
   </si>
@@ -2052,6 +2052,9 @@
   </si>
   <si>
     <t>punto_gps3</t>
+  </si>
+  <si>
+    <t>${capta_fuentes_subt} = 'yes'</t>
   </si>
 </sst>
 </file>
@@ -2481,8 +2484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4043,74 +4046,74 @@
         <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>245</v>
+        <v>311</v>
       </c>
       <c r="C104" t="s">
-        <v>246</v>
+        <v>312</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>35</v>
-      </c>
-      <c r="B105" t="s">
-        <v>247</v>
-      </c>
-      <c r="C105" t="s">
-        <v>602</v>
-      </c>
-      <c r="D105" t="s">
-        <v>15</v>
-      </c>
+      <c r="A105" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D105" s="3"/>
+      <c r="E105" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>600</v>
+        <v>318</v>
       </c>
       <c r="C106" t="s">
-        <v>601</v>
+        <v>319</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="F107" s="3"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
-      <c r="K107" s="3"/>
-      <c r="L107" s="3"/>
+      <c r="A107" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" t="s">
+        <v>320</v>
+      </c>
+      <c r="C107" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>248</v>
+        <v>322</v>
       </c>
       <c r="C108" t="s">
-        <v>249</v>
+        <v>665</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
@@ -4121,10 +4124,10 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>250</v>
+        <v>668</v>
       </c>
       <c r="C109" t="s">
-        <v>251</v>
+        <v>664</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
@@ -4135,13 +4138,16 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>647</v>
+        <v>323</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>324</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
+      </c>
+      <c r="E110" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4149,999 +4155,999 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>252</v>
+        <v>326</v>
       </c>
       <c r="C111" t="s">
-        <v>253</v>
+        <v>327</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
+      </c>
+      <c r="E111" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>254</v>
+        <v>160</v>
       </c>
       <c r="B112" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
       <c r="C112" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>16</v>
       </c>
       <c r="B113" t="s">
+        <v>330</v>
+      </c>
+      <c r="C113" t="s">
+        <v>331</v>
+      </c>
+      <c r="D113" t="s">
+        <v>15</v>
+      </c>
+      <c r="E113" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" t="s">
+        <v>332</v>
+      </c>
+      <c r="C114" t="s">
+        <v>333</v>
+      </c>
+      <c r="D114" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" t="s">
+        <v>335</v>
+      </c>
+      <c r="D115" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>16</v>
+      </c>
+      <c r="B116" t="s">
+        <v>336</v>
+      </c>
+      <c r="C116" t="s">
+        <v>337</v>
+      </c>
+      <c r="D116" t="s">
+        <v>15</v>
+      </c>
+      <c r="E116" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>338</v>
+      </c>
+      <c r="C117" t="s">
+        <v>339</v>
+      </c>
+      <c r="D117" t="s">
+        <v>15</v>
+      </c>
+      <c r="E117" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>16</v>
+      </c>
+      <c r="B118" t="s">
+        <v>340</v>
+      </c>
+      <c r="C118" t="s">
+        <v>341</v>
+      </c>
+      <c r="D118" t="s">
+        <v>15</v>
+      </c>
+      <c r="E118" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>16</v>
+      </c>
+      <c r="B119" t="s">
+        <v>342</v>
+      </c>
+      <c r="C119" t="s">
+        <v>343</v>
+      </c>
+      <c r="D119" t="s">
+        <v>15</v>
+      </c>
+      <c r="E119" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>16</v>
+      </c>
+      <c r="B120" t="s">
+        <v>344</v>
+      </c>
+      <c r="C120" t="s">
+        <v>345</v>
+      </c>
+      <c r="D120" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>346</v>
+      </c>
+      <c r="B121" t="s">
+        <v>347</v>
+      </c>
+      <c r="C121" t="s">
+        <v>348</v>
+      </c>
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>349</v>
+      </c>
+      <c r="B122" t="s">
+        <v>273</v>
+      </c>
+      <c r="C122" t="s">
+        <v>350</v>
+      </c>
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>16</v>
+      </c>
+      <c r="B123" t="s">
+        <v>351</v>
+      </c>
+      <c r="C123" t="s">
+        <v>352</v>
+      </c>
+      <c r="D123" t="s">
+        <v>15</v>
+      </c>
+      <c r="E123" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>353</v>
+      </c>
+      <c r="B124" t="s">
+        <v>354</v>
+      </c>
+      <c r="C124" t="s">
+        <v>355</v>
+      </c>
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>65</v>
+      </c>
+      <c r="B125" t="s">
+        <v>356</v>
+      </c>
+      <c r="C125" t="s">
+        <v>357</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>16</v>
+      </c>
+      <c r="B126" t="s">
+        <v>359</v>
+      </c>
+      <c r="C126" t="s">
+        <v>360</v>
+      </c>
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>361</v>
+      </c>
+      <c r="B127" t="s">
+        <v>362</v>
+      </c>
+      <c r="C127" t="s">
+        <v>363</v>
+      </c>
+      <c r="D127" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>364</v>
+      </c>
+      <c r="B128" t="s">
+        <v>365</v>
+      </c>
+      <c r="C128" t="s">
+        <v>366</v>
+      </c>
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>639</v>
+      </c>
+      <c r="B129" t="s">
+        <v>640</v>
+      </c>
+      <c r="C129" t="s">
+        <v>642</v>
+      </c>
+      <c r="D129" t="s">
+        <v>15</v>
+      </c>
+      <c r="E129" t="s">
+        <v>325</v>
+      </c>
+      <c r="L129" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>639</v>
+      </c>
+      <c r="B130" t="s">
+        <v>641</v>
+      </c>
+      <c r="C130" t="s">
+        <v>643</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" t="s">
+        <v>325</v>
+      </c>
+      <c r="L130" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>35</v>
+      </c>
+      <c r="B131" t="s">
+        <v>367</v>
+      </c>
+      <c r="C131" t="s">
+        <v>368</v>
+      </c>
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>369</v>
+      </c>
+      <c r="B132" t="s">
+        <v>370</v>
+      </c>
+      <c r="C132" t="s">
+        <v>371</v>
+      </c>
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>35</v>
+      </c>
+      <c r="B133" t="s">
+        <v>372</v>
+      </c>
+      <c r="C133" t="s">
+        <v>373</v>
+      </c>
+      <c r="D133" t="s">
+        <v>15</v>
+      </c>
+      <c r="E133" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>35</v>
+      </c>
+      <c r="B134" t="s">
+        <v>374</v>
+      </c>
+      <c r="C134" t="s">
+        <v>375</v>
+      </c>
+      <c r="D134" t="s">
+        <v>15</v>
+      </c>
+      <c r="E134" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>16</v>
+      </c>
+      <c r="B135" t="s">
+        <v>376</v>
+      </c>
+      <c r="C135" t="s">
+        <v>377</v>
+      </c>
+      <c r="D135" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>379</v>
+      </c>
+      <c r="B136" t="s">
+        <v>217</v>
+      </c>
+      <c r="C136" t="s">
+        <v>380</v>
+      </c>
+      <c r="D136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>65</v>
+      </c>
+      <c r="B137" t="s">
+        <v>381</v>
+      </c>
+      <c r="C137" t="s">
+        <v>382</v>
+      </c>
+      <c r="D137" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+      <c r="F138" s="3"/>
+      <c r="G138" s="3"/>
+      <c r="H138" s="3"/>
+      <c r="I138" s="3"/>
+      <c r="J138" s="3"/>
+      <c r="K138" s="3"/>
+      <c r="L138" s="3"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>35</v>
+      </c>
+      <c r="B139" t="s">
+        <v>245</v>
+      </c>
+      <c r="C139" t="s">
+        <v>246</v>
+      </c>
+      <c r="D139" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>35</v>
+      </c>
+      <c r="B140" t="s">
+        <v>247</v>
+      </c>
+      <c r="C140" t="s">
+        <v>602</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>16</v>
+      </c>
+      <c r="B141" t="s">
+        <v>600</v>
+      </c>
+      <c r="C141" t="s">
+        <v>601</v>
+      </c>
+      <c r="D141" t="s">
+        <v>15</v>
+      </c>
+      <c r="E141" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A142" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+      <c r="H142" s="3"/>
+      <c r="I142" s="3"/>
+      <c r="J142" s="3"/>
+      <c r="K142" s="3"/>
+      <c r="L142" s="3"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>16</v>
+      </c>
+      <c r="B143" t="s">
+        <v>248</v>
+      </c>
+      <c r="C143" t="s">
+        <v>249</v>
+      </c>
+      <c r="D143" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>16</v>
+      </c>
+      <c r="B144" t="s">
+        <v>250</v>
+      </c>
+      <c r="C144" t="s">
+        <v>251</v>
+      </c>
+      <c r="D144" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>16</v>
+      </c>
+      <c r="B145" t="s">
+        <v>647</v>
+      </c>
+      <c r="C145" t="s">
+        <v>28</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" t="s">
+        <v>252</v>
+      </c>
+      <c r="C146" t="s">
+        <v>253</v>
+      </c>
+      <c r="D146" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>254</v>
+      </c>
+      <c r="B147" t="s">
+        <v>255</v>
+      </c>
+      <c r="C147" t="s">
+        <v>256</v>
+      </c>
+      <c r="D147" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" t="s">
         <v>257</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C148" t="s">
         <v>258</v>
       </c>
-      <c r="D113" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>16</v>
-      </c>
-      <c r="B114" t="s">
-        <v>259</v>
-      </c>
-      <c r="C114" t="s">
-        <v>260</v>
-      </c>
-      <c r="D114" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>261</v>
-      </c>
-      <c r="B115" t="s">
-        <v>262</v>
-      </c>
-      <c r="C115" t="s">
-        <v>263</v>
-      </c>
-      <c r="D115" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="C116" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="F116" s="16" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>266</v>
-      </c>
-      <c r="B117" t="s">
-        <v>267</v>
-      </c>
-      <c r="H117" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="315" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>266</v>
-      </c>
-      <c r="B118" t="s">
-        <v>268</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>269</v>
-      </c>
-      <c r="B119" t="s">
-        <v>270</v>
-      </c>
-      <c r="C119" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>272</v>
-      </c>
-      <c r="B120" t="s">
-        <v>597</v>
-      </c>
-      <c r="C120" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>65</v>
-      </c>
-      <c r="B121" t="s">
-        <v>275</v>
-      </c>
-      <c r="C121" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>65</v>
-      </c>
-      <c r="B122" t="s">
-        <v>277</v>
-      </c>
-      <c r="C122" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>65</v>
-      </c>
-      <c r="B123" t="s">
-        <v>279</v>
-      </c>
-      <c r="C123" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>70</v>
-      </c>
-      <c r="B124" t="s">
-        <v>666</v>
-      </c>
-      <c r="C124" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>16</v>
-      </c>
-      <c r="B125" t="s">
-        <v>658</v>
-      </c>
-      <c r="C125" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>200</v>
-      </c>
-      <c r="B126" t="s">
-        <v>281</v>
-      </c>
-      <c r="C126" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>16</v>
-      </c>
-      <c r="B127" t="s">
-        <v>283</v>
-      </c>
-      <c r="C127" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>16</v>
-      </c>
-      <c r="B128" t="s">
-        <v>285</v>
-      </c>
-      <c r="C128" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>9</v>
-      </c>
-      <c r="B129" t="s">
-        <v>287</v>
-      </c>
-      <c r="C129" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>9</v>
-      </c>
-      <c r="B130" t="s">
-        <v>289</v>
-      </c>
-      <c r="C130" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>232</v>
-      </c>
-      <c r="B131" t="s">
-        <v>291</v>
-      </c>
-      <c r="C131" t="s">
-        <v>292</v>
-      </c>
-      <c r="I131" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>232</v>
-      </c>
-      <c r="B132" t="s">
-        <v>293</v>
-      </c>
-      <c r="C132" t="s">
-        <v>294</v>
-      </c>
-      <c r="I132" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>232</v>
-      </c>
-      <c r="B133" t="s">
-        <v>295</v>
-      </c>
-      <c r="C133" t="s">
-        <v>296</v>
-      </c>
-      <c r="I133" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>9</v>
-      </c>
-      <c r="B135" t="s">
-        <v>297</v>
-      </c>
-      <c r="C135" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>232</v>
-      </c>
-      <c r="B136" t="s">
-        <v>299</v>
-      </c>
-      <c r="C136" t="s">
-        <v>292</v>
-      </c>
-      <c r="I136" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>232</v>
-      </c>
-      <c r="B137" t="s">
-        <v>300</v>
-      </c>
-      <c r="C137" t="s">
-        <v>294</v>
-      </c>
-      <c r="I137" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>232</v>
-      </c>
-      <c r="B138" t="s">
-        <v>301</v>
-      </c>
-      <c r="C138" t="s">
-        <v>296</v>
-      </c>
-      <c r="I138" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>9</v>
-      </c>
-      <c r="B140" t="s">
-        <v>302</v>
-      </c>
-      <c r="C140" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>232</v>
-      </c>
-      <c r="B141" t="s">
-        <v>304</v>
-      </c>
-      <c r="C141" t="s">
-        <v>292</v>
-      </c>
-      <c r="I141" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>232</v>
-      </c>
-      <c r="B142" t="s">
-        <v>305</v>
-      </c>
-      <c r="C142" t="s">
-        <v>294</v>
-      </c>
-      <c r="I142" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>232</v>
-      </c>
-      <c r="B143" t="s">
-        <v>306</v>
-      </c>
-      <c r="C143" t="s">
-        <v>296</v>
-      </c>
-      <c r="I143" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A146" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B146" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-      <c r="G146" s="3"/>
-      <c r="H146" s="3"/>
-      <c r="I146" s="3"/>
-      <c r="J146" s="3"/>
-      <c r="K146" s="3"/>
-      <c r="L146" s="3"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>35</v>
-      </c>
-      <c r="B147" t="s">
-        <v>311</v>
-      </c>
-      <c r="C147" t="s">
-        <v>312</v>
-      </c>
-      <c r="D147" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="F148" s="3"/>
-      <c r="G148" s="3"/>
-      <c r="H148" s="3"/>
-      <c r="I148" s="3"/>
-      <c r="J148" s="3"/>
-      <c r="K148" s="3"/>
-      <c r="L148" s="3"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>16</v>
       </c>
       <c r="B149" t="s">
-        <v>318</v>
+        <v>259</v>
       </c>
       <c r="C149" t="s">
-        <v>319</v>
+        <v>260</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="B150" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="C150" t="s">
-        <v>321</v>
+        <v>263</v>
       </c>
       <c r="D150" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="151" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B151" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="F151" s="16" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>266</v>
+      </c>
+      <c r="B152" t="s">
+        <v>267</v>
+      </c>
+      <c r="H152" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>266</v>
+      </c>
+      <c r="B153" t="s">
+        <v>268</v>
+      </c>
+      <c r="H153" s="9" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>269</v>
+      </c>
+      <c r="B154" t="s">
+        <v>270</v>
+      </c>
+      <c r="C154" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>272</v>
+      </c>
+      <c r="B155" t="s">
+        <v>597</v>
+      </c>
+      <c r="C155" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>65</v>
+      </c>
+      <c r="B156" t="s">
+        <v>275</v>
+      </c>
+      <c r="C156" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>65</v>
+      </c>
+      <c r="B157" t="s">
+        <v>277</v>
+      </c>
+      <c r="C157" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>65</v>
+      </c>
+      <c r="B158" t="s">
+        <v>279</v>
+      </c>
+      <c r="C158" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>70</v>
       </c>
-      <c r="B151" t="s">
-        <v>322</v>
-      </c>
-      <c r="C151" t="s">
-        <v>665</v>
-      </c>
-      <c r="D151" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>16</v>
-      </c>
-      <c r="B152" t="s">
-        <v>668</v>
-      </c>
-      <c r="C152" t="s">
-        <v>664</v>
-      </c>
-      <c r="D152" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>16</v>
-      </c>
-      <c r="B153" t="s">
-        <v>323</v>
-      </c>
-      <c r="C153" t="s">
-        <v>324</v>
-      </c>
-      <c r="D153" t="s">
-        <v>15</v>
-      </c>
-      <c r="E153" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>16</v>
-      </c>
-      <c r="B154" t="s">
-        <v>326</v>
-      </c>
-      <c r="C154" t="s">
-        <v>327</v>
-      </c>
-      <c r="D154" t="s">
-        <v>15</v>
-      </c>
-      <c r="E154" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>160</v>
-      </c>
-      <c r="B155" t="s">
-        <v>328</v>
-      </c>
-      <c r="C155" t="s">
-        <v>329</v>
-      </c>
-      <c r="D155" t="s">
-        <v>15</v>
-      </c>
-      <c r="E155" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>16</v>
-      </c>
-      <c r="B156" t="s">
-        <v>330</v>
-      </c>
-      <c r="C156" t="s">
-        <v>331</v>
-      </c>
-      <c r="D156" t="s">
-        <v>15</v>
-      </c>
-      <c r="E156" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>160</v>
-      </c>
-      <c r="B157" t="s">
-        <v>332</v>
-      </c>
-      <c r="C157" t="s">
-        <v>333</v>
-      </c>
-      <c r="D157" t="s">
-        <v>15</v>
-      </c>
-      <c r="E157" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>16</v>
-      </c>
-      <c r="B158" t="s">
-        <v>334</v>
-      </c>
-      <c r="C158" t="s">
-        <v>335</v>
-      </c>
-      <c r="D158" t="s">
-        <v>15</v>
-      </c>
-      <c r="E158" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>16</v>
-      </c>
       <c r="B159" t="s">
-        <v>336</v>
+        <v>666</v>
       </c>
       <c r="C159" t="s">
-        <v>337</v>
-      </c>
-      <c r="D159" t="s">
-        <v>15</v>
-      </c>
-      <c r="E159" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>338</v>
+        <v>658</v>
       </c>
       <c r="C160" t="s">
-        <v>339</v>
-      </c>
-      <c r="D160" t="s">
-        <v>15</v>
-      </c>
-      <c r="E160" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="B161" t="s">
-        <v>340</v>
+        <v>281</v>
       </c>
       <c r="C161" t="s">
-        <v>341</v>
-      </c>
-      <c r="D161" t="s">
-        <v>15</v>
-      </c>
-      <c r="E161" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>342</v>
+        <v>283</v>
       </c>
       <c r="C162" t="s">
-        <v>343</v>
-      </c>
-      <c r="D162" t="s">
-        <v>15</v>
-      </c>
-      <c r="E162" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="C163" t="s">
-        <v>345</v>
-      </c>
-      <c r="D163" t="s">
-        <v>15</v>
-      </c>
-      <c r="E163" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>346</v>
+        <v>9</v>
       </c>
       <c r="B164" t="s">
-        <v>347</v>
+        <v>287</v>
       </c>
       <c r="C164" t="s">
-        <v>348</v>
-      </c>
-      <c r="D164" t="s">
-        <v>15</v>
-      </c>
-      <c r="E164" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>349</v>
+        <v>9</v>
       </c>
       <c r="B165" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="C165" t="s">
-        <v>350</v>
-      </c>
-      <c r="D165" t="s">
-        <v>15</v>
-      </c>
-      <c r="E165" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="B166" t="s">
-        <v>351</v>
+        <v>291</v>
       </c>
       <c r="C166" t="s">
-        <v>352</v>
-      </c>
-      <c r="D166" t="s">
-        <v>15</v>
-      </c>
-      <c r="E166" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="I166" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>353</v>
+        <v>232</v>
       </c>
       <c r="B167" t="s">
-        <v>354</v>
+        <v>293</v>
       </c>
       <c r="C167" t="s">
-        <v>355</v>
-      </c>
-      <c r="D167" t="s">
-        <v>15</v>
-      </c>
-      <c r="E167" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="I167" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>65</v>
+        <v>232</v>
       </c>
       <c r="B168" t="s">
-        <v>356</v>
+        <v>295</v>
       </c>
       <c r="C168" t="s">
-        <v>357</v>
-      </c>
-      <c r="D168" t="s">
-        <v>15</v>
-      </c>
-      <c r="E168" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="I168" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>16</v>
-      </c>
-      <c r="B169" t="s">
-        <v>359</v>
-      </c>
-      <c r="C169" t="s">
-        <v>360</v>
-      </c>
-      <c r="D169" t="s">
-        <v>15</v>
-      </c>
-      <c r="E169" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>361</v>
+        <v>9</v>
       </c>
       <c r="B170" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="C170" t="s">
-        <v>363</v>
-      </c>
-      <c r="D170" t="s">
-        <v>15</v>
-      </c>
-      <c r="E170" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>364</v>
+        <v>232</v>
       </c>
       <c r="B171" t="s">
-        <v>365</v>
+        <v>299</v>
       </c>
       <c r="C171" t="s">
-        <v>366</v>
-      </c>
-      <c r="D171" t="s">
-        <v>15</v>
-      </c>
-      <c r="E171" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+      <c r="I171" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>639</v>
+        <v>232</v>
       </c>
       <c r="B172" t="s">
-        <v>640</v>
+        <v>300</v>
       </c>
       <c r="C172" t="s">
-        <v>642</v>
-      </c>
-      <c r="D172" t="s">
-        <v>15</v>
-      </c>
-      <c r="E172" t="s">
-        <v>325</v>
-      </c>
-      <c r="L172" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="I172" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>639</v>
+        <v>232</v>
       </c>
       <c r="B173" t="s">
-        <v>641</v>
+        <v>301</v>
       </c>
       <c r="C173" t="s">
-        <v>643</v>
-      </c>
-      <c r="D173" t="s">
-        <v>15</v>
-      </c>
-      <c r="E173" t="s">
-        <v>325</v>
-      </c>
-      <c r="L173" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+      <c r="I173" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>35</v>
-      </c>
-      <c r="B174" t="s">
-        <v>367</v>
-      </c>
-      <c r="C174" t="s">
-        <v>368</v>
-      </c>
-      <c r="D174" t="s">
-        <v>15</v>
-      </c>
-      <c r="E174" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>369</v>
+        <v>9</v>
       </c>
       <c r="B175" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="C175" t="s">
-        <v>371</v>
-      </c>
-      <c r="D175" t="s">
-        <v>15</v>
-      </c>
-      <c r="E175" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="B176" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="C176" t="s">
-        <v>373</v>
-      </c>
-      <c r="D176" t="s">
-        <v>15</v>
-      </c>
-      <c r="E176" t="s">
-        <v>325</v>
+        <v>292</v>
+      </c>
+      <c r="I176" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>35</v>
+        <v>232</v>
       </c>
       <c r="B177" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="C177" t="s">
-        <v>375</v>
-      </c>
-      <c r="D177" t="s">
-        <v>15</v>
-      </c>
-      <c r="E177" t="s">
-        <v>325</v>
+        <v>294</v>
+      </c>
+      <c r="I177" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="B178" t="s">
-        <v>376</v>
+        <v>306</v>
       </c>
       <c r="C178" t="s">
-        <v>377</v>
-      </c>
-      <c r="D178" t="s">
-        <v>15</v>
-      </c>
-      <c r="E178" t="s">
-        <v>378</v>
+        <v>296</v>
+      </c>
+      <c r="I178" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>379</v>
-      </c>
-      <c r="B179" t="s">
-        <v>217</v>
-      </c>
-      <c r="C179" t="s">
-        <v>380</v>
-      </c>
-      <c r="D179" t="s">
-        <v>15</v>
-      </c>
-      <c r="E179" t="s">
-        <v>325</v>
+        <v>52</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>65</v>
-      </c>
-      <c r="B180" t="s">
-        <v>381</v>
-      </c>
-      <c r="C180" t="s">
-        <v>382</v>
-      </c>
-      <c r="D180" t="s">
-        <v>15</v>
-      </c>
-      <c r="E180" t="s">
-        <v>325</v>
+        <v>52</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -5149,10 +5155,10 @@
         <v>52</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>383</v>
+        <v>307</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>384</v>
+        <v>308</v>
       </c>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>

--- a/xlsForms/Encuesta 1 Ficha Predial.xlsx
+++ b/xlsForms/Encuesta 1 Ficha Predial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8662B31-8F6B-404B-AA11-0138AD5AE5BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522DB8CF-2586-4EA4-9B01-AD7585719FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1114" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="671">
   <si>
     <t>type</t>
   </si>
@@ -792,12 +792,6 @@
   </si>
   <si>
     <t>Predio</t>
-  </si>
-  <si>
-    <t>id_punto_usuario</t>
-  </si>
-  <si>
-    <t>ID punto usuario</t>
   </si>
   <si>
     <t>select_multiple fuente_superficial</t>
@@ -2055,6 +2049,15 @@
   </si>
   <si>
     <t>${capta_fuentes_subt} = 'yes'</t>
+  </si>
+  <si>
+    <t>id_fp</t>
+  </si>
+  <si>
+    <t>ID Ficha Predial</t>
+  </si>
+  <si>
+    <t>${nombre_predio}</t>
   </si>
 </sst>
 </file>
@@ -2484,8 +2487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2532,13 +2535,13 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -2561,13 +2564,13 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -2575,16 +2578,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>315</v>
-      </c>
-      <c r="C4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -2601,7 +2604,7 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -2618,7 +2621,7 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -2635,7 +2638,7 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -2652,12 +2655,12 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -2669,7 +2672,7 @@
         <v>15</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -2962,10 +2965,10 @@
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C30" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
@@ -4046,10 +4049,10 @@
         <v>35</v>
       </c>
       <c r="B104" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C104" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D104" t="s">
         <v>15</v>
@@ -4060,14 +4063,14 @@
         <v>9</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -4082,10 +4085,10 @@
         <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C106" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D106" t="s">
         <v>15</v>
@@ -4096,10 +4099,10 @@
         <v>35</v>
       </c>
       <c r="B107" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C107" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D107" t="s">
         <v>15</v>
@@ -4110,10 +4113,10 @@
         <v>70</v>
       </c>
       <c r="B108" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C108" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D108" t="s">
         <v>15</v>
@@ -4124,10 +4127,10 @@
         <v>16</v>
       </c>
       <c r="B109" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C109" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D109" t="s">
         <v>15</v>
@@ -4138,16 +4141,16 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
+        <v>321</v>
+      </c>
+      <c r="C110" t="s">
+        <v>322</v>
+      </c>
+      <c r="D110" t="s">
+        <v>15</v>
+      </c>
+      <c r="E110" t="s">
         <v>323</v>
-      </c>
-      <c r="C110" t="s">
-        <v>324</v>
-      </c>
-      <c r="D110" t="s">
-        <v>15</v>
-      </c>
-      <c r="E110" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
@@ -4155,33 +4158,36 @@
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C111" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
       </c>
       <c r="E111" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C112" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>325</v>
+        <v>323</v>
+      </c>
+      <c r="G112" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -4189,16 +4195,16 @@
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C113" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -4206,16 +4212,16 @@
         <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C114" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -4223,16 +4229,16 @@
         <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C115" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -4240,16 +4246,16 @@
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C116" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -4257,16 +4263,16 @@
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C117" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -4274,16 +4280,16 @@
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C118" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4291,16 +4297,16 @@
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C119" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="E119" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -4308,50 +4314,50 @@
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C120" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D120" t="s">
         <v>15</v>
       </c>
       <c r="E120" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>344</v>
+      </c>
+      <c r="B121" t="s">
+        <v>345</v>
+      </c>
+      <c r="C121" t="s">
         <v>346</v>
       </c>
-      <c r="B121" t="s">
-        <v>347</v>
-      </c>
-      <c r="C121" t="s">
-        <v>348</v>
-      </c>
       <c r="D121" t="s">
         <v>15</v>
       </c>
       <c r="E121" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B122" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C122" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
       </c>
       <c r="E122" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4359,33 +4365,33 @@
         <v>16</v>
       </c>
       <c r="B123" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C123" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>351</v>
+      </c>
+      <c r="B124" t="s">
+        <v>352</v>
+      </c>
+      <c r="C124" t="s">
         <v>353</v>
       </c>
-      <c r="B124" t="s">
-        <v>354</v>
-      </c>
-      <c r="C124" t="s">
-        <v>355</v>
-      </c>
       <c r="D124" t="s">
         <v>15</v>
       </c>
       <c r="E124" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4393,16 +4399,16 @@
         <v>65</v>
       </c>
       <c r="B125" t="s">
+        <v>354</v>
+      </c>
+      <c r="C125" t="s">
+        <v>355</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
         <v>356</v>
-      </c>
-      <c r="C125" t="s">
-        <v>357</v>
-      </c>
-      <c r="D125" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4410,90 +4416,90 @@
         <v>16</v>
       </c>
       <c r="B126" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C126" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D126" t="s">
         <v>15</v>
       </c>
       <c r="E126" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>359</v>
+      </c>
+      <c r="B127" t="s">
+        <v>360</v>
+      </c>
+      <c r="C127" t="s">
         <v>361</v>
       </c>
-      <c r="B127" t="s">
-        <v>362</v>
-      </c>
-      <c r="C127" t="s">
-        <v>363</v>
-      </c>
       <c r="D127" t="s">
         <v>15</v>
       </c>
       <c r="E127" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>362</v>
+      </c>
+      <c r="B128" t="s">
+        <v>363</v>
+      </c>
+      <c r="C128" t="s">
         <v>364</v>
       </c>
-      <c r="B128" t="s">
-        <v>365</v>
-      </c>
-      <c r="C128" t="s">
-        <v>366</v>
-      </c>
       <c r="D128" t="s">
         <v>15</v>
       </c>
       <c r="E128" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B129" t="s">
+        <v>638</v>
+      </c>
+      <c r="C129" t="s">
         <v>640</v>
       </c>
-      <c r="C129" t="s">
-        <v>642</v>
-      </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L129" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>637</v>
+      </c>
+      <c r="B130" t="s">
         <v>639</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
         <v>641</v>
       </c>
-      <c r="C130" t="s">
-        <v>643</v>
-      </c>
       <c r="D130" t="s">
         <v>15</v>
       </c>
       <c r="E130" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L130" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
@@ -4501,33 +4507,33 @@
         <v>35</v>
       </c>
       <c r="B131" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C131" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
       </c>
       <c r="E131" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>367</v>
+      </c>
+      <c r="B132" t="s">
+        <v>368</v>
+      </c>
+      <c r="C132" t="s">
         <v>369</v>
       </c>
-      <c r="B132" t="s">
-        <v>370</v>
-      </c>
-      <c r="C132" t="s">
-        <v>371</v>
-      </c>
       <c r="D132" t="s">
         <v>15</v>
       </c>
       <c r="E132" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
@@ -4535,16 +4541,16 @@
         <v>35</v>
       </c>
       <c r="B133" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C133" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
@@ -4552,16 +4558,16 @@
         <v>35</v>
       </c>
       <c r="B134" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C134" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
@@ -4569,33 +4575,33 @@
         <v>16</v>
       </c>
       <c r="B135" t="s">
+        <v>374</v>
+      </c>
+      <c r="C135" t="s">
+        <v>375</v>
+      </c>
+      <c r="D135" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" t="s">
         <v>376</v>
-      </c>
-      <c r="C135" t="s">
-        <v>377</v>
-      </c>
-      <c r="D135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B136" t="s">
         <v>217</v>
       </c>
       <c r="C136" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D136" t="s">
         <v>15</v>
       </c>
       <c r="E136" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
@@ -4603,16 +4609,16 @@
         <v>65</v>
       </c>
       <c r="B137" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C137" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D137" t="s">
         <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
@@ -4620,10 +4626,10 @@
         <v>52</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
@@ -4657,7 +4663,7 @@
         <v>247</v>
       </c>
       <c r="C140" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D140" t="s">
         <v>15</v>
@@ -4668,16 +4674,16 @@
         <v>16</v>
       </c>
       <c r="B141" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C141" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
       <c r="E141" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
@@ -4692,7 +4698,7 @@
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="3"/>
@@ -4735,7 +4741,7 @@
         <v>16</v>
       </c>
       <c r="B145" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C145" t="s">
         <v>28</v>
@@ -4743,16 +4749,19 @@
       <c r="D145" t="s">
         <v>15</v>
       </c>
+      <c r="H145" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>16</v>
+        <v>252</v>
       </c>
       <c r="B146" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C146" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D146" t="s">
         <v>15</v>
@@ -4760,7 +4769,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>254</v>
+        <v>16</v>
       </c>
       <c r="B147" t="s">
         <v>255</v>
@@ -4788,85 +4797,82 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
       <c r="B149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D149" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>261</v>
-      </c>
-      <c r="B150" t="s">
+    <row r="150" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B150" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="D150" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B151" s="16" t="s">
+      <c r="F150" s="16" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>264</v>
       </c>
-      <c r="C151" s="16" t="s">
+      <c r="B151" t="s">
         <v>265</v>
       </c>
-      <c r="F151" s="16" t="s">
+      <c r="H151" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>264</v>
+      </c>
+      <c r="B152" t="s">
+        <v>266</v>
+      </c>
+      <c r="H152" s="9" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>266</v>
-      </c>
-      <c r="B152" t="s">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>267</v>
-      </c>
-      <c r="H152" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="315" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>266</v>
       </c>
       <c r="B153" t="s">
         <v>268</v>
       </c>
-      <c r="H153" s="9" t="s">
-        <v>537</v>
+      <c r="C153" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B154" t="s">
-        <v>270</v>
+        <v>595</v>
       </c>
       <c r="C154" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>272</v>
+        <v>65</v>
       </c>
       <c r="B155" t="s">
-        <v>597</v>
+        <v>273</v>
       </c>
       <c r="C155" t="s">
         <v>274</v>
@@ -4896,40 +4902,40 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B158" t="s">
-        <v>279</v>
+        <v>664</v>
       </c>
       <c r="C158" t="s">
-        <v>280</v>
+        <v>665</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="C159" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="B160" t="s">
-        <v>658</v>
+        <v>279</v>
       </c>
       <c r="C160" t="s">
-        <v>657</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="B161" t="s">
         <v>281</v>
@@ -4951,7 +4957,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B163" t="s">
         <v>285</v>
@@ -4973,13 +4979,16 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="B165" t="s">
         <v>289</v>
       </c>
       <c r="C165" t="s">
         <v>290</v>
+      </c>
+      <c r="I165" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -5012,32 +5021,32 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>232</v>
-      </c>
-      <c r="B168" t="s">
-        <v>295</v>
-      </c>
-      <c r="C168" t="s">
-        <v>296</v>
-      </c>
-      <c r="I168" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>52</v>
+        <v>9</v>
+      </c>
+      <c r="B169" t="s">
+        <v>295</v>
+      </c>
+      <c r="C169" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="B170" t="s">
         <v>297</v>
       </c>
       <c r="C170" t="s">
-        <v>298</v>
+        <v>290</v>
+      </c>
+      <c r="I170" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -5045,7 +5054,7 @@
         <v>232</v>
       </c>
       <c r="B171" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C171" t="s">
         <v>292</v>
@@ -5059,7 +5068,7 @@
         <v>232</v>
       </c>
       <c r="B172" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C172" t="s">
         <v>294</v>
@@ -5070,32 +5079,32 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>232</v>
-      </c>
-      <c r="B173" t="s">
-        <v>301</v>
-      </c>
-      <c r="C173" t="s">
-        <v>296</v>
-      </c>
-      <c r="I173" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>52</v>
+        <v>9</v>
+      </c>
+      <c r="B174" t="s">
+        <v>300</v>
+      </c>
+      <c r="C174" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
       <c r="B175" t="s">
         <v>302</v>
       </c>
       <c r="C175" t="s">
-        <v>303</v>
+        <v>290</v>
+      </c>
+      <c r="I175" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -5103,7 +5112,7 @@
         <v>232</v>
       </c>
       <c r="B176" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C176" t="s">
         <v>292</v>
@@ -5117,7 +5126,7 @@
         <v>232</v>
       </c>
       <c r="B177" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C177" t="s">
         <v>294</v>
@@ -5128,16 +5137,7 @@
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>232</v>
-      </c>
-      <c r="B178" t="s">
-        <v>306</v>
-      </c>
-      <c r="C178" t="s">
-        <v>296</v>
-      </c>
-      <c r="I178" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.25">
@@ -5146,29 +5146,38 @@
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
+      <c r="A180" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="B180" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+      <c r="G180" s="3"/>
+      <c r="H180" s="3"/>
+      <c r="I180" s="3"/>
+      <c r="J180" s="3"/>
+      <c r="K180" s="3"/>
+      <c r="L180" s="3"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-      <c r="J181" s="3"/>
-      <c r="K181" s="3"/>
-      <c r="L181" s="3"/>
+      <c r="A181" t="s">
+        <v>267</v>
+      </c>
+      <c r="B181" t="s">
+        <v>668</v>
+      </c>
+      <c r="C181" t="s">
+        <v>669</v>
+      </c>
+      <c r="H181" t="s">
+        <v>315</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5193,7 +5202,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5207,10 +5216,10 @@
         <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5218,10 +5227,10 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -5229,10 +5238,10 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -5240,109 +5249,109 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C5" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>392</v>
+      </c>
+      <c r="B7" t="s">
         <v>394</v>
       </c>
-      <c r="B7" t="s">
-        <v>396</v>
-      </c>
       <c r="C7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" t="s">
         <v>398</v>
-      </c>
-      <c r="B8" t="s">
-        <v>399</v>
-      </c>
-      <c r="C8" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>403</v>
+      </c>
+      <c r="B11" t="s">
+        <v>404</v>
+      </c>
+      <c r="C11" t="s">
         <v>405</v>
-      </c>
-      <c r="B11" t="s">
-        <v>406</v>
-      </c>
-      <c r="C11" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="C12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C13" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B14" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C14" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -5350,10 +5359,10 @@
         <v>120</v>
       </c>
       <c r="B15" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C15" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5361,10 +5370,10 @@
         <v>120</v>
       </c>
       <c r="B16" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C16" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -5372,10 +5381,10 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -5383,10 +5392,10 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C18" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -5394,10 +5403,10 @@
         <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C19" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -5405,10 +5414,10 @@
         <v>126</v>
       </c>
       <c r="B20" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C20" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -5416,10 +5425,10 @@
         <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C21" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -5427,10 +5436,10 @@
         <v>126</v>
       </c>
       <c r="B22" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C22" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -5438,10 +5447,10 @@
         <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C23" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -5449,10 +5458,10 @@
         <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C24" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -5460,10 +5469,10 @@
         <v>130</v>
       </c>
       <c r="B25" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C25" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -5471,10 +5480,10 @@
         <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C26" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -5482,10 +5491,10 @@
         <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C27" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -5493,10 +5502,10 @@
         <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="C28" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -5504,10 +5513,10 @@
         <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C29" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -5515,54 +5524,54 @@
         <v>133</v>
       </c>
       <c r="B30" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C30" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>444</v>
+      </c>
+      <c r="B31" t="s">
+        <v>445</v>
+      </c>
+      <c r="C31" t="s">
         <v>446</v>
-      </c>
-      <c r="B31" t="s">
-        <v>447</v>
-      </c>
-      <c r="C31" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B32" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C32" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>449</v>
+      </c>
+      <c r="B33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C33" t="s">
         <v>451</v>
-      </c>
-      <c r="B33" t="s">
-        <v>452</v>
-      </c>
-      <c r="C33" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B34" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C34" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -5570,10 +5579,10 @@
         <v>190</v>
       </c>
       <c r="B35" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C35" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -5581,10 +5590,10 @@
         <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C36" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -5592,10 +5601,10 @@
         <v>194</v>
       </c>
       <c r="B37" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C37" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -5603,10 +5612,10 @@
         <v>194</v>
       </c>
       <c r="B38" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C38" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -5614,10 +5623,10 @@
         <v>194</v>
       </c>
       <c r="B39" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C39" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -5625,10 +5634,10 @@
         <v>194</v>
       </c>
       <c r="B40" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C40" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -5636,10 +5645,10 @@
         <v>204</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C41" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -5647,10 +5656,10 @@
         <v>204</v>
       </c>
       <c r="B42" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C42" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -5658,10 +5667,10 @@
         <v>204</v>
       </c>
       <c r="B43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C43" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -5669,10 +5678,10 @@
         <v>220</v>
       </c>
       <c r="B44" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C44" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -5680,10 +5689,10 @@
         <v>220</v>
       </c>
       <c r="B45" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C45" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -5691,10 +5700,10 @@
         <v>220</v>
       </c>
       <c r="B46" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C46" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -5702,59 +5711,59 @@
         <v>220</v>
       </c>
       <c r="B47" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C47" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B48" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C48" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B49" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C49" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B50" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C50" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C51" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B52" t="s">
         <v>250</v>
@@ -5765,288 +5774,288 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B53" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C53" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B54" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C54" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B55" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C55" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B56" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C56" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B57" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C57" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B58" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C58" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B59" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C59" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B60" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C60" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B61" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C61" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B62" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C62" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B63" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C63" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>503</v>
+      </c>
+      <c r="B64" t="s">
+        <v>504</v>
+      </c>
+      <c r="C64" t="s">
         <v>505</v>
-      </c>
-      <c r="B64" t="s">
-        <v>506</v>
-      </c>
-      <c r="C64" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B65" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C65" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>508</v>
+      </c>
+      <c r="B66" t="s">
+        <v>509</v>
+      </c>
+      <c r="C66" t="s">
         <v>510</v>
-      </c>
-      <c r="B66" t="s">
-        <v>511</v>
-      </c>
-      <c r="C66" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B67" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C67" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B68" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C68" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B69" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C69" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B70" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C70" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B75" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C75" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B76" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C76" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B77" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C77" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B78" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="C78" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -6084,310 +6093,310 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>536</v>
+      </c>
+      <c r="B82" t="s">
+        <v>537</v>
+      </c>
+      <c r="C82" t="s">
         <v>538</v>
-      </c>
-      <c r="B82" t="s">
-        <v>539</v>
-      </c>
-      <c r="C82" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B83" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C83" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B84" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C84" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B85" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C85" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B86" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C86" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B87" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C87" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B88" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C88" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B89" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C89" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B90" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C90" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B91" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C91" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B92" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C92" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B93" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C93" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B94" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C94" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B95" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C95" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>565</v>
+      </c>
+      <c r="B96" t="s">
+        <v>566</v>
+      </c>
+      <c r="C96" t="s">
         <v>567</v>
-      </c>
-      <c r="B96" t="s">
-        <v>568</v>
-      </c>
-      <c r="C96" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B97" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C97" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B98" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C98" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B99" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C99" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B100" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C100" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B101" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C101" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B102" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C102" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B103" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C103" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B104" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C104" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B105" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="C105" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>586</v>
+      </c>
+      <c r="B106" t="s">
+        <v>587</v>
+      </c>
+      <c r="C106" t="s">
         <v>588</v>
-      </c>
-      <c r="B106" t="s">
-        <v>589</v>
-      </c>
-      <c r="C106" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B107" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C107" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B108" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C108" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B109" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C109" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -6395,10 +6404,10 @@
         <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C110" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -6406,10 +6415,10 @@
         <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C111" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -6417,10 +6426,10 @@
         <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="C112" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -6428,10 +6437,10 @@
         <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C113" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -6439,10 +6448,10 @@
         <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C114" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -6450,10 +6459,10 @@
         <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C115" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -6461,10 +6470,10 @@
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C116" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -6472,10 +6481,10 @@
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C117" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -6483,10 +6492,10 @@
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="C118" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -6494,10 +6503,10 @@
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C119" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -6505,10 +6514,10 @@
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C120" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -6516,10 +6525,10 @@
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C121" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -6527,10 +6536,10 @@
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="C122" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -6538,10 +6547,10 @@
         <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C123" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -6566,24 +6575,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>529</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>530</v>
+      </c>
+      <c r="B2" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2" t="s">
         <v>532</v>
-      </c>
-      <c r="B2" t="s">
-        <v>533</v>
-      </c>
-      <c r="C2" t="s">
-        <v>534</v>
       </c>
     </row>
   </sheetData>

--- a/xlsForms/Encuesta 1 Ficha Predial.xlsx
+++ b/xlsForms/Encuesta 1 Ficha Predial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{522DB8CF-2586-4EA4-9B01-AD7585719FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966F664B-F2F5-4F46-AA11-F91CC7D62267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1116" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="675">
   <si>
     <t>type</t>
   </si>
@@ -2058,6 +2058,18 @@
   </si>
   <si>
     <t>${nombre_predio}</t>
+  </si>
+  <si>
+    <t>coordenadas_manual</t>
+  </si>
+  <si>
+    <t>Coordenadas (manual)  (Este, norte)</t>
+  </si>
+  <si>
+    <t>anual</t>
+  </si>
+  <si>
+    <t>Anual</t>
   </si>
 </sst>
 </file>
@@ -2485,28 +2497,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L181"/>
+  <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2556,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -2562,7 +2574,7 @@
       <c r="I2" s="5"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>264</v>
       </c>
@@ -2573,7 +2585,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2590,7 +2602,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2607,7 +2619,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2624,7 +2636,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2641,7 +2653,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2658,7 +2670,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>601</v>
       </c>
@@ -2675,7 +2687,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2689,7 +2701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2703,7 +2715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2717,7 +2729,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2731,7 +2743,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2759,7 +2771,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2776,7 +2788,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2790,7 +2802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2807,7 +2819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2821,7 +2833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2838,7 +2850,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -2850,7 +2862,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -2862,7 +2874,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2876,7 +2888,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2890,7 +2902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2904,7 +2916,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2932,7 +2944,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2946,7 +2958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -2956,11 +2968,8 @@
       <c r="C29" t="s">
         <v>72</v>
       </c>
-      <c r="D29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2974,7 +2983,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2988,7 +2997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -3022,7 +3031,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -3036,7 +3045,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -3053,7 +3062,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -3070,7 +3079,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3084,7 +3093,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -3101,7 +3110,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -3118,7 +3127,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -3132,7 +3141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -3149,7 +3158,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -3166,7 +3175,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -3180,7 +3189,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -3194,7 +3203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -3208,7 +3217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -3219,7 +3228,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -3230,7 +3239,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -3244,7 +3253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -3261,7 +3270,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -3275,7 +3284,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -3289,7 +3298,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -3306,7 +3315,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -3320,7 +3329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -3337,7 +3346,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>129</v>
       </c>
@@ -3351,7 +3360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -3365,7 +3374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -3390,7 +3399,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>9</v>
       </c>
@@ -3401,7 +3410,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -3415,7 +3424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -3429,7 +3438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -3443,7 +3452,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -3457,7 +3466,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -3471,7 +3480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -3485,7 +3494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -3499,7 +3508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -3513,7 +3522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -3527,7 +3536,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>160</v>
       </c>
@@ -3541,7 +3550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -3555,7 +3564,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -3569,7 +3578,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -3583,7 +3592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>160</v>
       </c>
@@ -3597,7 +3606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -3611,7 +3620,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -3622,7 +3631,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>52</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>9</v>
       </c>
@@ -3644,7 +3653,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -3658,7 +3667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -3675,7 +3684,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -3689,7 +3698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -3703,7 +3712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>189</v>
       </c>
@@ -3720,7 +3729,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>193</v>
       </c>
@@ -3737,7 +3746,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -3751,7 +3760,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -3765,7 +3774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>200</v>
       </c>
@@ -3779,7 +3788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>203</v>
       </c>
@@ -3793,7 +3802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -3807,7 +3816,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>52</v>
       </c>
@@ -3827,7 +3836,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>9</v>
       </c>
@@ -3847,7 +3856,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>160</v>
       </c>
@@ -3861,7 +3870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -3878,7 +3887,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>160</v>
       </c>
@@ -3892,7 +3901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -3906,7 +3915,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -3920,7 +3929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -3934,7 +3943,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -3948,7 +3957,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -3962,7 +3971,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -3976,7 +3985,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>232</v>
       </c>
@@ -3996,7 +4005,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -4010,7 +4019,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>52</v>
       </c>
@@ -4030,7 +4039,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>232</v>
       </c>
@@ -4044,7 +4053,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -4058,7 +4067,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>9</v>
       </c>
@@ -4080,7 +4089,7 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -4094,7 +4103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>35</v>
       </c>
@@ -4108,60 +4117,51 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
+        <v>16</v>
+      </c>
+      <c r="B108" t="s">
+        <v>671</v>
+      </c>
+      <c r="C108" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>70</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>320</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C109" t="s">
         <v>663</v>
       </c>
-      <c r="D108" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>16</v>
-      </c>
-      <c r="B109" t="s">
-        <v>666</v>
-      </c>
-      <c r="C109" t="s">
-        <v>662</v>
-      </c>
-      <c r="D109" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>321</v>
+        <v>666</v>
       </c>
       <c r="C110" t="s">
-        <v>322</v>
+        <v>662</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
-      <c r="E110" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>16</v>
       </c>
       <c r="B111" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C111" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D111" t="s">
         <v>15</v>
@@ -4170,15 +4170,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>16</v>
       </c>
       <c r="B112" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C112" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D112" t="s">
         <v>15</v>
@@ -4186,19 +4186,16 @@
       <c r="E112" t="s">
         <v>323</v>
       </c>
-      <c r="G112" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C113" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
@@ -4206,16 +4203,19 @@
       <c r="E113" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G113" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>160</v>
+        <v>16</v>
       </c>
       <c r="B114" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C114" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D114" t="s">
         <v>15</v>
@@ -4224,15 +4224,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="B115" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C115" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D115" t="s">
         <v>15</v>
@@ -4241,15 +4241,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C116" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D116" t="s">
         <v>15</v>
@@ -4258,15 +4258,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C117" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D117" t="s">
         <v>15</v>
@@ -4275,15 +4275,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>16</v>
       </c>
       <c r="B118" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C118" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D118" t="s">
         <v>15</v>
@@ -4292,15 +4292,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>16</v>
       </c>
       <c r="B119" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C119" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D119" t="s">
         <v>15</v>
@@ -4309,15 +4309,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>16</v>
       </c>
       <c r="B120" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C120" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D120" t="s">
         <v>15</v>
@@ -4326,15 +4326,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>344</v>
+        <v>16</v>
       </c>
       <c r="B121" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C121" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D121" t="s">
         <v>15</v>
@@ -4343,15 +4343,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B122" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="C122" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="D122" t="s">
         <v>15</v>
@@ -4360,15 +4360,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>16</v>
+        <v>347</v>
       </c>
       <c r="B123" t="s">
-        <v>349</v>
+        <v>271</v>
       </c>
       <c r="C123" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
@@ -4377,15 +4377,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>351</v>
+        <v>16</v>
       </c>
       <c r="B124" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C124" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D124" t="s">
         <v>15</v>
@@ -4394,49 +4394,49 @@
         <v>323</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
+        <v>351</v>
+      </c>
+      <c r="B125" t="s">
+        <v>352</v>
+      </c>
+      <c r="C125" t="s">
+        <v>353</v>
+      </c>
+      <c r="D125" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
         <v>65</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>354</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C126" t="s">
         <v>355</v>
       </c>
-      <c r="D125" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
         <v>16</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>357</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C127" t="s">
         <v>358</v>
-      </c>
-      <c r="D126" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>359</v>
-      </c>
-      <c r="B127" t="s">
-        <v>360</v>
-      </c>
-      <c r="C127" t="s">
-        <v>361</v>
       </c>
       <c r="D127" t="s">
         <v>15</v>
@@ -4445,15 +4445,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B128" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C128" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D128" t="s">
         <v>15</v>
@@ -4462,15 +4462,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>637</v>
+        <v>362</v>
       </c>
       <c r="B129" t="s">
-        <v>638</v>
+        <v>363</v>
       </c>
       <c r="C129" t="s">
-        <v>640</v>
+        <v>364</v>
       </c>
       <c r="D129" t="s">
         <v>15</v>
@@ -4478,19 +4478,16 @@
       <c r="E129" t="s">
         <v>323</v>
       </c>
-      <c r="L129" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>637</v>
       </c>
       <c r="B130" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C130" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D130" t="s">
         <v>15</v>
@@ -4499,18 +4496,18 @@
         <v>323</v>
       </c>
       <c r="L130" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>35</v>
+        <v>637</v>
       </c>
       <c r="B131" t="s">
-        <v>365</v>
+        <v>639</v>
       </c>
       <c r="C131" t="s">
-        <v>366</v>
+        <v>641</v>
       </c>
       <c r="D131" t="s">
         <v>15</v>
@@ -4518,16 +4515,19 @@
       <c r="E131" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L131" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>367</v>
+        <v>35</v>
       </c>
       <c r="B132" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C132" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D132" t="s">
         <v>15</v>
@@ -4536,15 +4536,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>35</v>
+        <v>367</v>
       </c>
       <c r="B133" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C133" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D133" t="s">
         <v>15</v>
@@ -4553,15 +4553,15 @@
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>35</v>
       </c>
       <c r="B134" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C134" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D134" t="s">
         <v>15</v>
@@ -4570,49 +4570,49 @@
         <v>323</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
+        <v>35</v>
+      </c>
+      <c r="B135" t="s">
+        <v>372</v>
+      </c>
+      <c r="C135" t="s">
+        <v>373</v>
+      </c>
+      <c r="D135" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
         <v>16</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>374</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>375</v>
       </c>
-      <c r="D135" t="s">
-        <v>15</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="D136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
         <v>377</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>217</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>378</v>
-      </c>
-      <c r="D136" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>65</v>
-      </c>
-      <c r="B137" t="s">
-        <v>379</v>
-      </c>
-      <c r="C137" t="s">
-        <v>380</v>
       </c>
       <c r="D137" t="s">
         <v>15</v>
@@ -4621,561 +4621,578 @@
         <v>323</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>65</v>
+      </c>
+      <c r="B138" t="s">
+        <v>379</v>
+      </c>
+      <c r="C138" t="s">
+        <v>380</v>
+      </c>
+      <c r="D138" t="s">
+        <v>15</v>
+      </c>
+      <c r="E138" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B139" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C139" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3"/>
-      <c r="I138" s="3"/>
-      <c r="J138" s="3"/>
-      <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>35</v>
-      </c>
-      <c r="B139" t="s">
-        <v>245</v>
-      </c>
-      <c r="C139" t="s">
-        <v>246</v>
-      </c>
-      <c r="D139" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="3"/>
+      <c r="J139" s="3"/>
+      <c r="K139" s="3"/>
+      <c r="L139" s="3"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>35</v>
       </c>
       <c r="B140" t="s">
+        <v>245</v>
+      </c>
+      <c r="C140" t="s">
+        <v>246</v>
+      </c>
+      <c r="D140" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" t="s">
         <v>247</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C141" t="s">
         <v>600</v>
       </c>
-      <c r="D140" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+      <c r="D141" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
         <v>16</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B142" t="s">
         <v>598</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C142" t="s">
         <v>599</v>
       </c>
-      <c r="D141" t="s">
-        <v>15</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="D142" t="s">
+        <v>15</v>
+      </c>
+      <c r="E142" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B143" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3" t="s">
+      <c r="D143" s="3"/>
+      <c r="E143" s="3" t="s">
         <v>597</v>
       </c>
-      <c r="F142" s="3"/>
-      <c r="G142" s="3"/>
-      <c r="H142" s="3"/>
-      <c r="I142" s="3"/>
-      <c r="J142" s="3"/>
-      <c r="K142" s="3"/>
-      <c r="L142" s="3"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>16</v>
-      </c>
-      <c r="B143" t="s">
-        <v>248</v>
-      </c>
-      <c r="C143" t="s">
-        <v>249</v>
-      </c>
-      <c r="D143" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F143" s="3"/>
+      <c r="G143" s="3"/>
+      <c r="H143" s="3"/>
+      <c r="I143" s="3"/>
+      <c r="J143" s="3"/>
+      <c r="K143" s="3"/>
+      <c r="L143" s="3"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>16</v>
       </c>
       <c r="B144" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C144" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D144" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>16</v>
       </c>
       <c r="B145" t="s">
+        <v>250</v>
+      </c>
+      <c r="C145" t="s">
+        <v>251</v>
+      </c>
+      <c r="D145" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>16</v>
+      </c>
+      <c r="B146" t="s">
         <v>645</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C146" t="s">
         <v>28</v>
       </c>
-      <c r="D145" t="s">
-        <v>15</v>
-      </c>
-      <c r="H145" t="s">
+      <c r="D146" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
         <v>252</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B147" t="s">
         <v>253</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C147" t="s">
         <v>254</v>
       </c>
-      <c r="D146" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>16</v>
-      </c>
-      <c r="B147" t="s">
-        <v>255</v>
-      </c>
-      <c r="C147" t="s">
-        <v>256</v>
-      </c>
       <c r="D147" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>16</v>
       </c>
       <c r="B148" t="s">
+        <v>255</v>
+      </c>
+      <c r="C148" t="s">
+        <v>256</v>
+      </c>
+      <c r="D148" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>16</v>
+      </c>
+      <c r="B149" t="s">
         <v>257</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C149" t="s">
         <v>258</v>
       </c>
-      <c r="D148" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+      <c r="D149" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
         <v>259</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B150" t="s">
         <v>260</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C150" t="s">
         <v>261</v>
       </c>
-      <c r="D149" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="16" t="s">
+      <c r="D150" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="16" t="s">
         <v>181</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B151" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="C150" s="16" t="s">
+      <c r="C151" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="F150" s="16" t="s">
+      <c r="F151" s="16" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>264</v>
-      </c>
-      <c r="B151" t="s">
-        <v>265</v>
-      </c>
-      <c r="H151" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="315" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>264</v>
       </c>
       <c r="B152" t="s">
+        <v>265</v>
+      </c>
+      <c r="H152" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="302.39999999999998" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>264</v>
+      </c>
+      <c r="B153" t="s">
         <v>266</v>
       </c>
-      <c r="H152" s="9" t="s">
+      <c r="H153" s="9" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
         <v>267</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B154" t="s">
         <v>268</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C154" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
         <v>270</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B155" t="s">
         <v>595</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C155" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>65</v>
-      </c>
-      <c r="B155" t="s">
-        <v>273</v>
-      </c>
-      <c r="C155" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>65</v>
       </c>
       <c r="B156" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C156" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>65</v>
       </c>
       <c r="B157" t="s">
+        <v>275</v>
+      </c>
+      <c r="C157" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>65</v>
+      </c>
+      <c r="B158" t="s">
         <v>277</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C158" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>70</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B159" t="s">
         <v>664</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C159" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>16</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B160" t="s">
         <v>656</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C160" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>200</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B161" t="s">
         <v>279</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C161" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>16</v>
-      </c>
-      <c r="B161" t="s">
-        <v>281</v>
-      </c>
-      <c r="C161" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>16</v>
       </c>
       <c r="B162" t="s">
+        <v>281</v>
+      </c>
+      <c r="C162" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" t="s">
         <v>283</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C163" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>9</v>
-      </c>
-      <c r="B163" t="s">
-        <v>285</v>
-      </c>
-      <c r="C163" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>9</v>
       </c>
       <c r="B164" t="s">
+        <v>285</v>
+      </c>
+      <c r="C164" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>9</v>
+      </c>
+      <c r="B165" t="s">
         <v>287</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C165" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>232</v>
-      </c>
-      <c r="B165" t="s">
-        <v>289</v>
-      </c>
-      <c r="C165" t="s">
-        <v>290</v>
-      </c>
-      <c r="I165" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>232</v>
       </c>
       <c r="B166" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C166" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I166" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>232</v>
       </c>
       <c r="B167" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C167" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I167" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
+        <v>232</v>
+      </c>
+      <c r="B168" t="s">
+        <v>293</v>
+      </c>
+      <c r="C168" t="s">
+        <v>294</v>
+      </c>
+      <c r="I168" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
         <v>9</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B170" t="s">
         <v>295</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C170" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>232</v>
-      </c>
-      <c r="B170" t="s">
-        <v>297</v>
-      </c>
-      <c r="C170" t="s">
-        <v>290</v>
-      </c>
-      <c r="I170" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>232</v>
       </c>
       <c r="B171" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C171" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I171" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>232</v>
       </c>
       <c r="B172" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C172" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I172" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
+        <v>232</v>
+      </c>
+      <c r="B173" t="s">
+        <v>299</v>
+      </c>
+      <c r="C173" t="s">
+        <v>294</v>
+      </c>
+      <c r="I173" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
         <v>9</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B175" t="s">
         <v>300</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C175" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>232</v>
-      </c>
-      <c r="B175" t="s">
-        <v>302</v>
-      </c>
-      <c r="C175" t="s">
-        <v>290</v>
-      </c>
-      <c r="I175" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>232</v>
       </c>
       <c r="B176" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C176" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="I176" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>232</v>
       </c>
       <c r="B177" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C177" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I177" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="B178" t="s">
+        <v>304</v>
+      </c>
+      <c r="C178" t="s">
+        <v>294</v>
+      </c>
+      <c r="I178" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A180" s="3" t="s">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
         <v>52</v>
       </c>
-      <c r="B180" s="3" t="s">
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A181" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B181" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C181" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-      <c r="J180" s="3"/>
-      <c r="K180" s="3"/>
-      <c r="L180" s="3"/>
-    </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+      <c r="G181" s="3"/>
+      <c r="H181" s="3"/>
+      <c r="I181" s="3"/>
+      <c r="J181" s="3"/>
+      <c r="K181" s="3"/>
+      <c r="L181" s="3"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
         <v>267</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B182" t="s">
         <v>668</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C182" t="s">
         <v>669</v>
       </c>
-      <c r="H181" t="s">
+      <c r="H182" t="s">
         <v>315</v>
       </c>
     </row>
@@ -5187,20 +5204,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>383</v>
       </c>
@@ -5211,7 +5228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -5222,7 +5239,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
@@ -5233,7 +5250,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5244,7 +5261,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -5255,7 +5272,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>392</v>
       </c>
@@ -5266,7 +5283,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>392</v>
       </c>
@@ -5277,7 +5294,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>396</v>
       </c>
@@ -5288,7 +5305,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>396</v>
       </c>
@@ -5299,7 +5316,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>396</v>
       </c>
@@ -5310,7 +5327,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>403</v>
       </c>
@@ -5321,7 +5338,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>403</v>
       </c>
@@ -5332,7 +5349,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>403</v>
       </c>
@@ -5343,7 +5360,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>403</v>
       </c>
@@ -5354,7 +5371,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>120</v>
       </c>
@@ -5365,7 +5382,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>120</v>
       </c>
@@ -5376,7 +5393,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>120</v>
       </c>
@@ -5387,7 +5404,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>120</v>
       </c>
@@ -5398,7 +5415,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>126</v>
       </c>
@@ -5409,7 +5426,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>126</v>
       </c>
@@ -5420,7 +5437,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>126</v>
       </c>
@@ -5431,7 +5448,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>126</v>
       </c>
@@ -5442,7 +5459,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>130</v>
       </c>
@@ -5453,7 +5470,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>130</v>
       </c>
@@ -5464,7 +5481,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>130</v>
       </c>
@@ -5475,7 +5492,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -5486,7 +5503,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>130</v>
       </c>
@@ -5497,7 +5514,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>133</v>
       </c>
@@ -5508,7 +5525,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>133</v>
       </c>
@@ -5519,7 +5536,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>133</v>
       </c>
@@ -5530,7 +5547,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>444</v>
       </c>
@@ -5541,7 +5558,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>444</v>
       </c>
@@ -5552,7 +5569,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>449</v>
       </c>
@@ -5563,7 +5580,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>449</v>
       </c>
@@ -5574,7 +5591,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>190</v>
       </c>
@@ -5585,7 +5602,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>190</v>
       </c>
@@ -5596,7 +5613,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>194</v>
       </c>
@@ -5607,7 +5624,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>194</v>
       </c>
@@ -5618,7 +5635,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>194</v>
       </c>
@@ -5629,7 +5646,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>194</v>
       </c>
@@ -5640,7 +5657,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>204</v>
       </c>
@@ -5651,7 +5668,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>204</v>
       </c>
@@ -5662,7 +5679,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>204</v>
       </c>
@@ -5673,7 +5690,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>220</v>
       </c>
@@ -5684,7 +5701,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>220</v>
       </c>
@@ -5695,7 +5712,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>220</v>
       </c>
@@ -5706,7 +5723,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>220</v>
       </c>
@@ -5717,7 +5734,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>345</v>
       </c>
@@ -5728,7 +5745,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>345</v>
       </c>
@@ -5739,7 +5756,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>345</v>
       </c>
@@ -5750,7 +5767,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>345</v>
       </c>
@@ -5761,7 +5778,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>345</v>
       </c>
@@ -5772,7 +5789,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>345</v>
       </c>
@@ -5783,7 +5800,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>271</v>
       </c>
@@ -5794,7 +5811,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>271</v>
       </c>
@@ -5805,7 +5822,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>271</v>
       </c>
@@ -5816,7 +5833,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>271</v>
       </c>
@@ -5827,7 +5844,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>271</v>
       </c>
@@ -5838,7 +5855,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>271</v>
       </c>
@@ -5849,7 +5866,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>271</v>
       </c>
@@ -5860,7 +5877,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>271</v>
       </c>
@@ -5871,7 +5888,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>271</v>
       </c>
@@ -5882,7 +5899,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>503</v>
       </c>
@@ -5893,7 +5910,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>503</v>
       </c>
@@ -5904,7 +5921,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>503</v>
       </c>
@@ -5915,7 +5932,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>508</v>
       </c>
@@ -5926,7 +5943,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>508</v>
       </c>
@@ -5937,7 +5954,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>508</v>
       </c>
@@ -5948,7 +5965,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>508</v>
       </c>
@@ -5959,7 +5976,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>508</v>
       </c>
@@ -5970,586 +5987,597 @@
         <v>518</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>363</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+      <c r="B71" t="s">
+        <v>673</v>
+      </c>
+      <c r="C71" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>363</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>363</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>363</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>363</v>
+      </c>
+      <c r="B75" s="15" t="s">
         <v>652</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>368</v>
-      </c>
-      <c r="B75" t="s">
-        <v>519</v>
-      </c>
-      <c r="C75" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>368</v>
       </c>
       <c r="B76" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C76" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>368</v>
       </c>
       <c r="B77" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C77" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>368</v>
       </c>
       <c r="B78" t="s">
+        <v>523</v>
+      </c>
+      <c r="C78" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>368</v>
+      </c>
+      <c r="B79" t="s">
         <v>525</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C79" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>217</v>
-      </c>
-      <c r="B79">
-        <v>1</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>217</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>217</v>
       </c>
       <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>217</v>
+      </c>
+      <c r="B82">
         <v>3</v>
       </c>
-      <c r="C81">
+      <c r="C82">
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>536</v>
-      </c>
-      <c r="B82" t="s">
-        <v>537</v>
-      </c>
-      <c r="C82" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>536</v>
       </c>
       <c r="B83" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C83" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>536</v>
       </c>
       <c r="B84" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="C84" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>536</v>
       </c>
       <c r="B85" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="C85" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>536</v>
       </c>
       <c r="B86" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C86" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>536</v>
       </c>
       <c r="B87" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C87" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>536</v>
       </c>
       <c r="B88" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C88" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>536</v>
       </c>
       <c r="B89" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C89" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>536</v>
       </c>
       <c r="B90" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C90" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>536</v>
       </c>
       <c r="B91" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C91" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>536</v>
       </c>
       <c r="B92" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C92" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>536</v>
       </c>
       <c r="B93" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C93" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>536</v>
       </c>
       <c r="B94" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C94" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>536</v>
       </c>
       <c r="B95" t="s">
+        <v>561</v>
+      </c>
+      <c r="C95" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>536</v>
+      </c>
+      <c r="B96" t="s">
         <v>563</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C96" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>565</v>
-      </c>
-      <c r="B96" t="s">
-        <v>566</v>
-      </c>
-      <c r="C96" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>565</v>
       </c>
       <c r="B97" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C97" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>565</v>
       </c>
       <c r="B98" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="C98" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>565</v>
       </c>
       <c r="B99" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C99" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>565</v>
       </c>
       <c r="B100" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C100" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>565</v>
       </c>
       <c r="B101" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C101" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>565</v>
       </c>
       <c r="B102" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C102" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>565</v>
       </c>
       <c r="B103" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C103" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>565</v>
       </c>
       <c r="B104" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C104" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>565</v>
       </c>
       <c r="B105" t="s">
+        <v>582</v>
+      </c>
+      <c r="C105" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>565</v>
+      </c>
+      <c r="B106" t="s">
         <v>584</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>586</v>
-      </c>
-      <c r="B106" t="s">
-        <v>587</v>
-      </c>
-      <c r="C106" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>586</v>
       </c>
       <c r="B107" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C107" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>586</v>
       </c>
       <c r="B108" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C108" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>586</v>
       </c>
       <c r="B109" t="s">
+        <v>591</v>
+      </c>
+      <c r="C109" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>586</v>
+      </c>
+      <c r="B110" t="s">
         <v>593</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>23</v>
-      </c>
-      <c r="B110" t="s">
-        <v>607</v>
-      </c>
-      <c r="C110" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C111" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C112" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C113" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C114" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C115" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C116" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C117" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C118" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C119" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C120" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C121" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C122" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>23</v>
       </c>
       <c r="B123" t="s">
+        <v>619</v>
+      </c>
+      <c r="C123" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>23</v>
+      </c>
+      <c r="B124" t="s">
         <v>620</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C124" t="s">
         <v>629</v>
       </c>
     </row>
@@ -6566,14 +6594,14 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>527</v>
       </c>
@@ -6584,7 +6612,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>530</v>
       </c>

--- a/xlsForms/Encuesta 1 Ficha Predial.xlsx
+++ b/xlsForms/Encuesta 1 Ficha Predial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soporte\Documents\GitHub\informesCenso\xlsForms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966F664B-F2F5-4F46-AA11-F91CC7D62267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C6D006-8CAB-4C0B-BE6C-3E0B2C6F7B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="29016" windowHeight="15816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -974,9 +974,6 @@
     <t>idEncuesta</t>
   </si>
   <si>
-    <t>uuid()</t>
-  </si>
-  <si>
     <t>num_encuesta</t>
   </si>
   <si>
@@ -2070,6 +2067,9 @@
   </si>
   <si>
     <t>Anual</t>
+  </si>
+  <si>
+    <t>once(uuid())</t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2193,6 +2193,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2211,9 +2212,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2251,9 +2252,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2286,9 +2287,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2321,9 +2339,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2499,26 +2534,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="89.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="50.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="89.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="29" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="43.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2547,16 +2582,16 @@
         <v>8</v>
       </c>
       <c r="J1" s="14" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
@@ -2574,7 +2609,7 @@
       <c r="I2" s="5"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>264</v>
       </c>
@@ -2582,27 +2617,27 @@
         <v>311</v>
       </c>
       <c r="H3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
       <c r="B4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C4" t="s">
         <v>313</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>314</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2616,10 +2651,10 @@
         <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -2633,10 +2668,10 @@
         <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -2650,10 +2685,10 @@
         <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -2667,12 +2702,12 @@
         <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -2684,10 +2719,10 @@
         <v>15</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -2701,7 +2736,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2715,7 +2750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2728,8 +2763,9 @@
       <c r="D12" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2743,7 +2779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -2757,7 +2793,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -2771,7 +2807,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2788,7 +2824,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2802,7 +2838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -2819,7 +2855,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -2833,7 +2869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -2850,7 +2886,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>52</v>
       </c>
@@ -2862,7 +2898,7 @@
       </c>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
@@ -2874,7 +2910,7 @@
       </c>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2888,7 +2924,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2902,7 +2938,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2916,7 +2952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2930,7 +2966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>65</v>
       </c>
@@ -2944,7 +2980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>65</v>
       </c>
@@ -2958,7 +2994,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>70</v>
       </c>
@@ -2969,21 +3005,21 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C30" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D30" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -2997,7 +3033,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -3014,7 +3050,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>78</v>
       </c>
@@ -3031,7 +3067,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -3045,7 +3081,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -3062,7 +3098,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -3079,7 +3115,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3093,7 +3129,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -3110,7 +3146,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -3127,7 +3163,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -3141,7 +3177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -3158,7 +3194,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -3175,7 +3211,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>35</v>
       </c>
@@ -3189,7 +3225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -3203,7 +3239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -3217,7 +3253,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>52</v>
       </c>
@@ -3228,7 +3264,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>9</v>
       </c>
@@ -3239,7 +3275,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>35</v>
       </c>
@@ -3253,7 +3289,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>35</v>
       </c>
@@ -3270,7 +3306,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -3284,7 +3320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>35</v>
       </c>
@@ -3298,7 +3334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>119</v>
       </c>
@@ -3315,7 +3351,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>35</v>
       </c>
@@ -3329,7 +3365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>125</v>
       </c>
@@ -3346,7 +3382,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>129</v>
       </c>
@@ -3360,7 +3396,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>132</v>
       </c>
@@ -3374,7 +3410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -3388,7 +3424,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>52</v>
       </c>
@@ -3399,7 +3435,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>9</v>
       </c>
@@ -3410,7 +3446,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>141</v>
       </c>
@@ -3424,7 +3460,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -3438,7 +3474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -3452,7 +3488,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -3466,7 +3502,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -3480,7 +3516,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -3494,7 +3530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -3508,7 +3544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -3522,7 +3558,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -3536,7 +3572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>160</v>
       </c>
@@ -3550,7 +3586,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>35</v>
       </c>
@@ -3564,7 +3600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>35</v>
       </c>
@@ -3578,7 +3614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -3592,7 +3628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>160</v>
       </c>
@@ -3606,7 +3642,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -3620,7 +3656,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -3631,7 +3667,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>52</v>
       </c>
@@ -3642,7 +3678,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>9</v>
       </c>
@@ -3653,7 +3689,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>160</v>
       </c>
@@ -3667,7 +3703,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -3684,7 +3720,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -3698,7 +3734,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>160</v>
       </c>
@@ -3712,7 +3748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>189</v>
       </c>
@@ -3729,7 +3765,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>193</v>
       </c>
@@ -3746,7 +3782,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -3760,7 +3796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -3774,7 +3810,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>200</v>
       </c>
@@ -3788,7 +3824,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>203</v>
       </c>
@@ -3802,7 +3838,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -3816,7 +3852,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>52</v>
       </c>
@@ -3836,7 +3872,7 @@
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>9</v>
       </c>
@@ -3856,7 +3892,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>160</v>
       </c>
@@ -3870,7 +3906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>160</v>
       </c>
@@ -3887,7 +3923,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>160</v>
       </c>
@@ -3901,7 +3937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>219</v>
       </c>
@@ -3915,7 +3951,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -3929,7 +3965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -3943,7 +3979,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -3957,7 +3993,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -3971,7 +4007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -3985,7 +4021,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>232</v>
       </c>
@@ -4005,7 +4041,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -4019,7 +4055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>52</v>
       </c>
@@ -4039,7 +4075,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>232</v>
       </c>
@@ -4053,7 +4089,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>35</v>
       </c>
@@ -4067,7 +4103,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>9</v>
       </c>
@@ -4079,7 +4115,7 @@
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
@@ -4089,564 +4125,564 @@
       <c r="K105" s="3"/>
       <c r="L105" s="3"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>16</v>
       </c>
       <c r="B106" t="s">
+        <v>315</v>
+      </c>
+      <c r="C106" t="s">
         <v>316</v>
       </c>
-      <c r="C106" t="s">
-        <v>317</v>
-      </c>
       <c r="D106" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>35</v>
       </c>
       <c r="B107" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" t="s">
         <v>318</v>
       </c>
-      <c r="C107" t="s">
-        <v>319</v>
-      </c>
       <c r="D107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>16</v>
       </c>
       <c r="B108" t="s">
+        <v>670</v>
+      </c>
+      <c r="C108" t="s">
         <v>671</v>
       </c>
-      <c r="C108" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>70</v>
       </c>
       <c r="B109" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C109" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>16</v>
       </c>
       <c r="B110" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C110" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D110" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>16</v>
       </c>
       <c r="B111" t="s">
+        <v>320</v>
+      </c>
+      <c r="C111" t="s">
         <v>321</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
+        <v>15</v>
+      </c>
+      <c r="E111" t="s">
         <v>322</v>
       </c>
-      <c r="D111" t="s">
-        <v>15</v>
-      </c>
-      <c r="E111" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>16</v>
       </c>
       <c r="B112" t="s">
+        <v>323</v>
+      </c>
+      <c r="C112" t="s">
         <v>324</v>
       </c>
-      <c r="C112" t="s">
-        <v>325</v>
-      </c>
       <c r="D112" t="s">
         <v>15</v>
       </c>
       <c r="E112" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>16</v>
       </c>
       <c r="B113" t="s">
+        <v>325</v>
+      </c>
+      <c r="C113" t="s">
         <v>326</v>
       </c>
-      <c r="C113" t="s">
-        <v>327</v>
-      </c>
       <c r="D113" t="s">
         <v>15</v>
       </c>
       <c r="E113" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G113" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>16</v>
       </c>
       <c r="B114" t="s">
+        <v>327</v>
+      </c>
+      <c r="C114" t="s">
         <v>328</v>
       </c>
-      <c r="C114" t="s">
-        <v>329</v>
-      </c>
       <c r="D114" t="s">
         <v>15</v>
       </c>
       <c r="E114" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>160</v>
       </c>
       <c r="B115" t="s">
+        <v>329</v>
+      </c>
+      <c r="C115" t="s">
         <v>330</v>
       </c>
-      <c r="C115" t="s">
-        <v>331</v>
-      </c>
       <c r="D115" t="s">
         <v>15</v>
       </c>
       <c r="E115" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>16</v>
       </c>
       <c r="B116" t="s">
+        <v>331</v>
+      </c>
+      <c r="C116" t="s">
         <v>332</v>
       </c>
-      <c r="C116" t="s">
-        <v>333</v>
-      </c>
       <c r="D116" t="s">
         <v>15</v>
       </c>
       <c r="E116" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>16</v>
       </c>
       <c r="B117" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117" t="s">
         <v>334</v>
       </c>
-      <c r="C117" t="s">
-        <v>335</v>
-      </c>
       <c r="D117" t="s">
         <v>15</v>
       </c>
       <c r="E117" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>16</v>
       </c>
       <c r="B118" t="s">
+        <v>335</v>
+      </c>
+      <c r="C118" t="s">
         <v>336</v>
       </c>
-      <c r="C118" t="s">
-        <v>337</v>
-      </c>
       <c r="D118" t="s">
         <v>15</v>
       </c>
       <c r="E118" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>16</v>
       </c>
       <c r="B119" t="s">
+        <v>337</v>
+      </c>
+      <c r="C119" t="s">
         <v>338</v>
       </c>
-      <c r="C119" t="s">
-        <v>339</v>
-      </c>
       <c r="D119" t="s">
         <v>15</v>
       </c>
       <c r="E119" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>16</v>
       </c>
       <c r="B120" t="s">
+        <v>339</v>
+      </c>
+      <c r="C120" t="s">
         <v>340</v>
       </c>
-      <c r="C120" t="s">
-        <v>341</v>
-      </c>
       <c r="D120" t="s">
         <v>15</v>
       </c>
       <c r="E120" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>16</v>
       </c>
       <c r="B121" t="s">
+        <v>341</v>
+      </c>
+      <c r="C121" t="s">
         <v>342</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
+        <v>15</v>
+      </c>
+      <c r="E121" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>343</v>
       </c>
-      <c r="D121" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="B122" t="s">
         <v>344</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
         <v>345</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
+        <v>15</v>
+      </c>
+      <c r="E122" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>346</v>
-      </c>
-      <c r="D122" t="s">
-        <v>15</v>
-      </c>
-      <c r="E122" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
-        <v>347</v>
       </c>
       <c r="B123" t="s">
         <v>271</v>
       </c>
       <c r="C123" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D123" t="s">
         <v>15</v>
       </c>
       <c r="E123" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>16</v>
       </c>
       <c r="B124" t="s">
+        <v>348</v>
+      </c>
+      <c r="C124" t="s">
         <v>349</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
+        <v>15</v>
+      </c>
+      <c r="E124" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>350</v>
       </c>
-      <c r="D124" t="s">
-        <v>15</v>
-      </c>
-      <c r="E124" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="B125" t="s">
         <v>351</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
         <v>352</v>
       </c>
-      <c r="C125" t="s">
-        <v>353</v>
-      </c>
       <c r="D125" t="s">
         <v>15</v>
       </c>
       <c r="E125" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>65</v>
       </c>
       <c r="B126" t="s">
+        <v>353</v>
+      </c>
+      <c r="C126" t="s">
         <v>354</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
+        <v>15</v>
+      </c>
+      <c r="E126" t="s">
         <v>355</v>
       </c>
-      <c r="D126" t="s">
-        <v>15</v>
-      </c>
-      <c r="E126" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>16</v>
       </c>
       <c r="B127" t="s">
+        <v>356</v>
+      </c>
+      <c r="C127" t="s">
         <v>357</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
+        <v>15</v>
+      </c>
+      <c r="E127" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>358</v>
       </c>
-      <c r="D127" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+      <c r="B128" t="s">
         <v>359</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>360</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
+        <v>15</v>
+      </c>
+      <c r="E128" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>361</v>
       </c>
-      <c r="D128" t="s">
-        <v>15</v>
-      </c>
-      <c r="E128" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+      <c r="B129" t="s">
         <v>362</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
         <v>363</v>
       </c>
-      <c r="C129" t="s">
-        <v>364</v>
-      </c>
       <c r="D129" t="s">
         <v>15</v>
       </c>
       <c r="E129" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>636</v>
+      </c>
+      <c r="B130" t="s">
         <v>637</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>639</v>
+      </c>
+      <c r="D130" t="s">
+        <v>15</v>
+      </c>
+      <c r="E130" t="s">
+        <v>322</v>
+      </c>
+      <c r="L130" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>636</v>
+      </c>
+      <c r="B131" t="s">
         <v>638</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C131" t="s">
         <v>640</v>
       </c>
-      <c r="D130" t="s">
-        <v>15</v>
-      </c>
-      <c r="E130" t="s">
-        <v>323</v>
-      </c>
-      <c r="L130" t="s">
+      <c r="D131" t="s">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s">
+        <v>322</v>
+      </c>
+      <c r="L131" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
-        <v>637</v>
-      </c>
-      <c r="B131" t="s">
-        <v>639</v>
-      </c>
-      <c r="C131" t="s">
-        <v>641</v>
-      </c>
-      <c r="D131" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" t="s">
-        <v>323</v>
-      </c>
-      <c r="L131" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>35</v>
       </c>
       <c r="B132" t="s">
+        <v>364</v>
+      </c>
+      <c r="C132" t="s">
         <v>365</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
+        <v>15</v>
+      </c>
+      <c r="E132" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>366</v>
       </c>
-      <c r="D132" t="s">
-        <v>15</v>
-      </c>
-      <c r="E132" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+      <c r="B133" t="s">
         <v>367</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
         <v>368</v>
       </c>
-      <c r="C133" t="s">
-        <v>369</v>
-      </c>
       <c r="D133" t="s">
         <v>15</v>
       </c>
       <c r="E133" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>35</v>
       </c>
       <c r="B134" t="s">
+        <v>369</v>
+      </c>
+      <c r="C134" t="s">
         <v>370</v>
       </c>
-      <c r="C134" t="s">
-        <v>371</v>
-      </c>
       <c r="D134" t="s">
         <v>15</v>
       </c>
       <c r="E134" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>35</v>
       </c>
       <c r="B135" t="s">
+        <v>371</v>
+      </c>
+      <c r="C135" t="s">
         <v>372</v>
       </c>
-      <c r="C135" t="s">
-        <v>373</v>
-      </c>
       <c r="D135" t="s">
         <v>15</v>
       </c>
       <c r="E135" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>16</v>
       </c>
       <c r="B136" t="s">
+        <v>373</v>
+      </c>
+      <c r="C136" t="s">
         <v>374</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
+        <v>15</v>
+      </c>
+      <c r="E136" t="s">
         <v>375</v>
       </c>
-      <c r="D136" t="s">
-        <v>15</v>
-      </c>
-      <c r="E136" t="s">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
-        <v>377</v>
       </c>
       <c r="B137" t="s">
         <v>217</v>
       </c>
       <c r="C137" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D137" t="s">
         <v>15</v>
       </c>
       <c r="E137" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>65</v>
       </c>
       <c r="B138" t="s">
+        <v>378</v>
+      </c>
+      <c r="C138" t="s">
         <v>379</v>
       </c>
-      <c r="C138" t="s">
-        <v>380</v>
-      </c>
       <c r="D138" t="s">
         <v>15</v>
       </c>
       <c r="E138" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
@@ -4658,7 +4694,7 @@
       <c r="K139" s="3"/>
       <c r="L139" s="3"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>35</v>
       </c>
@@ -4672,7 +4708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>35</v>
       </c>
@@ -4680,30 +4716,30 @@
         <v>247</v>
       </c>
       <c r="C141" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D141" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>16</v>
       </c>
       <c r="B142" t="s">
+        <v>597</v>
+      </c>
+      <c r="C142" t="s">
         <v>598</v>
       </c>
-      <c r="C142" t="s">
-        <v>599</v>
-      </c>
       <c r="D142" t="s">
         <v>15</v>
       </c>
       <c r="E142" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>9</v>
       </c>
@@ -4715,7 +4751,7 @@
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="3"/>
@@ -4725,7 +4761,7 @@
       <c r="K143" s="3"/>
       <c r="L143" s="3"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -4739,7 +4775,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>16</v>
       </c>
@@ -4753,12 +4789,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C146" t="s">
         <v>28</v>
@@ -4767,10 +4803,10 @@
         <v>15</v>
       </c>
       <c r="H146" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>252</v>
       </c>
@@ -4784,7 +4820,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -4798,7 +4834,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -4812,7 +4848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>259</v>
       </c>
@@ -4826,7 +4862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16" t="s">
         <v>181</v>
       </c>
@@ -4837,10 +4873,10 @@
         <v>263</v>
       </c>
       <c r="F151" s="16" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>264</v>
       </c>
@@ -4848,10 +4884,10 @@
         <v>265</v>
       </c>
       <c r="H152" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="302.39999999999998" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="315" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>264</v>
       </c>
@@ -4859,10 +4895,10 @@
         <v>266</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>267</v>
       </c>
@@ -4873,18 +4909,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>270</v>
       </c>
       <c r="B155" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C155" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>65</v>
       </c>
@@ -4895,7 +4931,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>65</v>
       </c>
@@ -4906,7 +4942,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>65</v>
       </c>
@@ -4917,29 +4953,29 @@
         <v>278</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>70</v>
       </c>
       <c r="B159" t="s">
+        <v>663</v>
+      </c>
+      <c r="C159" t="s">
         <v>664</v>
       </c>
-      <c r="C159" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C160" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>200</v>
       </c>
@@ -4950,7 +4986,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -4961,7 +4997,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>16</v>
       </c>
@@ -4972,7 +5008,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>9</v>
       </c>
@@ -4983,7 +5019,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>9</v>
       </c>
@@ -4994,7 +5030,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>232</v>
       </c>
@@ -5008,7 +5044,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>232</v>
       </c>
@@ -5022,7 +5058,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>232</v>
       </c>
@@ -5036,12 +5072,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>9</v>
       </c>
@@ -5052,7 +5088,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>232</v>
       </c>
@@ -5066,7 +5102,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>232</v>
       </c>
@@ -5080,7 +5116,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>232</v>
       </c>
@@ -5094,12 +5130,12 @@
         <v>236</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>9</v>
       </c>
@@ -5110,7 +5146,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>232</v>
       </c>
@@ -5124,7 +5160,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>232</v>
       </c>
@@ -5138,7 +5174,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>232</v>
       </c>
@@ -5152,17 +5188,17 @@
         <v>236</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>52</v>
       </c>
@@ -5182,18 +5218,18 @@
       <c r="K181" s="3"/>
       <c r="L181" s="3"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>267</v>
       </c>
       <c r="B182" t="s">
+        <v>667</v>
+      </c>
+      <c r="C182" t="s">
         <v>668</v>
       </c>
-      <c r="C182" t="s">
-        <v>669</v>
-      </c>
       <c r="H182" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5210,16 +5246,16 @@
       <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -5228,559 +5264,559 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" t="s">
         <v>384</v>
       </c>
-      <c r="C2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" t="s">
         <v>386</v>
       </c>
-      <c r="C3" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>33</v>
       </c>
       <c r="B4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4" t="s">
         <v>388</v>
       </c>
-      <c r="C4" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
+        <v>389</v>
+      </c>
+      <c r="C5" t="s">
         <v>390</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
         <v>392</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>392</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>394</v>
       </c>
-      <c r="C7" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>396</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>397</v>
       </c>
-      <c r="C8" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>395</v>
+      </c>
+      <c r="B9" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>396</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>399</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>395</v>
+      </c>
+      <c r="B10" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>396</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>401</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>403</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>404</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>402</v>
+      </c>
+      <c r="B12" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>406</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B13" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>403</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>408</v>
       </c>
-      <c r="C13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B14" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>403</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>410</v>
       </c>
-      <c r="C14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>120</v>
       </c>
       <c r="B15" t="s">
+        <v>411</v>
+      </c>
+      <c r="C15" t="s">
         <v>412</v>
       </c>
-      <c r="C15" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>120</v>
       </c>
       <c r="B16" t="s">
+        <v>413</v>
+      </c>
+      <c r="C16" t="s">
         <v>414</v>
       </c>
-      <c r="C16" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>120</v>
       </c>
       <c r="B17" t="s">
+        <v>415</v>
+      </c>
+      <c r="C17" t="s">
         <v>416</v>
       </c>
-      <c r="C17" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>120</v>
       </c>
       <c r="B18" t="s">
+        <v>417</v>
+      </c>
+      <c r="C18" t="s">
         <v>418</v>
       </c>
-      <c r="C18" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>126</v>
       </c>
       <c r="B19" t="s">
+        <v>419</v>
+      </c>
+      <c r="C19" t="s">
         <v>420</v>
       </c>
-      <c r="C19" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>126</v>
       </c>
       <c r="B20" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" t="s">
         <v>422</v>
       </c>
-      <c r="C20" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>126</v>
       </c>
       <c r="B21" t="s">
+        <v>423</v>
+      </c>
+      <c r="C21" t="s">
         <v>424</v>
       </c>
-      <c r="C21" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>126</v>
       </c>
       <c r="B22" t="s">
+        <v>425</v>
+      </c>
+      <c r="C22" t="s">
         <v>426</v>
       </c>
-      <c r="C22" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>130</v>
       </c>
       <c r="B23" t="s">
+        <v>427</v>
+      </c>
+      <c r="C23" t="s">
         <v>428</v>
       </c>
-      <c r="C23" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>130</v>
       </c>
       <c r="B24" t="s">
+        <v>429</v>
+      </c>
+      <c r="C24" t="s">
         <v>430</v>
       </c>
-      <c r="C24" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>130</v>
       </c>
       <c r="B25" t="s">
+        <v>431</v>
+      </c>
+      <c r="C25" t="s">
         <v>432</v>
       </c>
-      <c r="C25" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>130</v>
       </c>
       <c r="B26" t="s">
+        <v>433</v>
+      </c>
+      <c r="C26" t="s">
         <v>434</v>
       </c>
-      <c r="C26" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>130</v>
       </c>
       <c r="B27" t="s">
+        <v>435</v>
+      </c>
+      <c r="C27" t="s">
         <v>436</v>
       </c>
-      <c r="C27" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>133</v>
       </c>
       <c r="B28" t="s">
+        <v>437</v>
+      </c>
+      <c r="C28" t="s">
         <v>438</v>
       </c>
-      <c r="C28" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>133</v>
       </c>
       <c r="B29" t="s">
+        <v>439</v>
+      </c>
+      <c r="C29" t="s">
         <v>440</v>
       </c>
-      <c r="C29" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>133</v>
       </c>
       <c r="B30" t="s">
+        <v>441</v>
+      </c>
+      <c r="C30" t="s">
         <v>442</v>
       </c>
-      <c r="C30" t="s">
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>444</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>445</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>443</v>
+      </c>
+      <c r="B32" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>444</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>447</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>449</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>450</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>448</v>
+      </c>
+      <c r="B34" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>449</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>452</v>
       </c>
-      <c r="C34" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>190</v>
       </c>
       <c r="B35" t="s">
+        <v>453</v>
+      </c>
+      <c r="C35" t="s">
         <v>454</v>
       </c>
-      <c r="C35" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>190</v>
       </c>
       <c r="B36" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C36" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>194</v>
       </c>
       <c r="B37" t="s">
+        <v>456</v>
+      </c>
+      <c r="C37" t="s">
         <v>457</v>
       </c>
-      <c r="C37" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>194</v>
       </c>
       <c r="B38" t="s">
+        <v>458</v>
+      </c>
+      <c r="C38" t="s">
         <v>459</v>
       </c>
-      <c r="C38" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>194</v>
       </c>
       <c r="B39" t="s">
+        <v>460</v>
+      </c>
+      <c r="C39" t="s">
         <v>461</v>
       </c>
-      <c r="C39" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>194</v>
       </c>
       <c r="B40" t="s">
+        <v>462</v>
+      </c>
+      <c r="C40" t="s">
         <v>463</v>
       </c>
-      <c r="C40" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>204</v>
       </c>
       <c r="B41" t="s">
+        <v>464</v>
+      </c>
+      <c r="C41" t="s">
         <v>465</v>
       </c>
-      <c r="C41" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>204</v>
       </c>
       <c r="B42" t="s">
+        <v>466</v>
+      </c>
+      <c r="C42" t="s">
         <v>467</v>
       </c>
-      <c r="C42" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>204</v>
       </c>
       <c r="B43" t="s">
+        <v>468</v>
+      </c>
+      <c r="C43" t="s">
         <v>469</v>
       </c>
-      <c r="C43" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>220</v>
       </c>
       <c r="B44" t="s">
+        <v>470</v>
+      </c>
+      <c r="C44" t="s">
         <v>471</v>
       </c>
-      <c r="C44" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>220</v>
       </c>
       <c r="B45" t="s">
+        <v>472</v>
+      </c>
+      <c r="C45" t="s">
         <v>473</v>
       </c>
-      <c r="C45" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>220</v>
       </c>
       <c r="B46" t="s">
+        <v>474</v>
+      </c>
+      <c r="C46" t="s">
         <v>475</v>
       </c>
-      <c r="C46" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>220</v>
       </c>
       <c r="B47" t="s">
+        <v>476</v>
+      </c>
+      <c r="C47" t="s">
         <v>477</v>
       </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>344</v>
+      </c>
+      <c r="B48" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>345</v>
-      </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>479</v>
       </c>
-      <c r="C48" t="s">
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>344</v>
+      </c>
+      <c r="B49" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>345</v>
-      </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>481</v>
       </c>
-      <c r="C49" t="s">
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>344</v>
+      </c>
+      <c r="B50" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>345</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
         <v>483</v>
       </c>
-      <c r="C50" t="s">
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>344</v>
+      </c>
+      <c r="B51" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>345</v>
-      </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
         <v>485</v>
       </c>
-      <c r="C51" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B52" t="s">
         <v>250</v>
@@ -5789,304 +5825,304 @@
         <v>251</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B53" t="s">
+        <v>486</v>
+      </c>
+      <c r="C53" t="s">
         <v>487</v>
       </c>
-      <c r="C53" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>271</v>
       </c>
       <c r="B54" t="s">
+        <v>488</v>
+      </c>
+      <c r="C54" t="s">
         <v>489</v>
       </c>
-      <c r="C54" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>271</v>
       </c>
       <c r="B55" t="s">
+        <v>490</v>
+      </c>
+      <c r="C55" t="s">
         <v>491</v>
       </c>
-      <c r="C55" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>271</v>
       </c>
       <c r="B56" t="s">
+        <v>492</v>
+      </c>
+      <c r="C56" t="s">
         <v>493</v>
       </c>
-      <c r="C56" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>271</v>
       </c>
       <c r="B57" t="s">
+        <v>494</v>
+      </c>
+      <c r="C57" t="s">
         <v>495</v>
       </c>
-      <c r="C57" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>271</v>
       </c>
       <c r="B58" t="s">
+        <v>496</v>
+      </c>
+      <c r="C58" t="s">
         <v>497</v>
       </c>
-      <c r="C58" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>271</v>
       </c>
       <c r="B59" t="s">
+        <v>498</v>
+      </c>
+      <c r="C59" t="s">
         <v>499</v>
       </c>
-      <c r="C59" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>271</v>
       </c>
       <c r="B60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C60" t="s">
         <v>501</v>
       </c>
-      <c r="C60" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>271</v>
       </c>
       <c r="B61" t="s">
+        <v>657</v>
+      </c>
+      <c r="C61" t="s">
         <v>658</v>
       </c>
-      <c r="C61" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>271</v>
       </c>
       <c r="B62" t="s">
+        <v>659</v>
+      </c>
+      <c r="C62" t="s">
         <v>660</v>
       </c>
-      <c r="C62" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>502</v>
+      </c>
+      <c r="B63" t="s">
+        <v>383</v>
+      </c>
+      <c r="C63" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>502</v>
+      </c>
+      <c r="B64" t="s">
         <v>503</v>
       </c>
-      <c r="B63" t="s">
-        <v>384</v>
-      </c>
-      <c r="C63" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>503</v>
-      </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
         <v>504</v>
       </c>
-      <c r="C64" t="s">
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>502</v>
+      </c>
+      <c r="B65" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>503</v>
-      </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
         <v>506</v>
       </c>
-      <c r="C65" t="s">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="B66" t="s">
         <v>508</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
         <v>509</v>
       </c>
-      <c r="C66" t="s">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>507</v>
+      </c>
+      <c r="B67" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>508</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
         <v>511</v>
       </c>
-      <c r="C67" t="s">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>507</v>
+      </c>
+      <c r="B68" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>508</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
         <v>513</v>
       </c>
-      <c r="C68" t="s">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>507</v>
+      </c>
+      <c r="B69" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>508</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
         <v>515</v>
       </c>
-      <c r="C69" t="s">
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>507</v>
+      </c>
+      <c r="B70" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>508</v>
-      </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
         <v>517</v>
       </c>
-      <c r="C70" t="s">
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>507</v>
+      </c>
+      <c r="B71" t="s">
+        <v>672</v>
+      </c>
+      <c r="C71" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>362</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>645</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>362</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>647</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>362</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>362</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>651</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>367</v>
+      </c>
+      <c r="B76" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>508</v>
-      </c>
-      <c r="B71" t="s">
-        <v>673</v>
-      </c>
-      <c r="C71" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>363</v>
-      </c>
-      <c r="B72" s="15" t="s">
-        <v>646</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>363</v>
-      </c>
-      <c r="B73" s="15" t="s">
-        <v>648</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>363</v>
-      </c>
-      <c r="B74" s="15" t="s">
-        <v>650</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>363</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>652</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>368</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
         <v>519</v>
       </c>
-      <c r="C76" t="s">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>367</v>
+      </c>
+      <c r="B77" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>368</v>
-      </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
         <v>521</v>
       </c>
-      <c r="C77" t="s">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>367</v>
+      </c>
+      <c r="B78" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>368</v>
-      </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
         <v>523</v>
       </c>
-      <c r="C78" t="s">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>367</v>
+      </c>
+      <c r="B79" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>368</v>
-      </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
         <v>525</v>
       </c>
-      <c r="C79" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>217</v>
       </c>
@@ -6097,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>217</v>
       </c>
@@ -6108,7 +6144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>217</v>
       </c>
@@ -6119,466 +6155,466 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>535</v>
+      </c>
+      <c r="B83" t="s">
         <v>536</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
         <v>537</v>
       </c>
-      <c r="C83" t="s">
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>535</v>
+      </c>
+      <c r="B84" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>536</v>
-      </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
         <v>539</v>
       </c>
-      <c r="C84" t="s">
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>535</v>
+      </c>
+      <c r="B85" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>536</v>
-      </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
         <v>541</v>
       </c>
-      <c r="C85" t="s">
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>535</v>
+      </c>
+      <c r="B86" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>536</v>
-      </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
         <v>543</v>
       </c>
-      <c r="C86" t="s">
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>535</v>
+      </c>
+      <c r="B87" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>536</v>
-      </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
         <v>545</v>
       </c>
-      <c r="C87" t="s">
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>535</v>
+      </c>
+      <c r="B88" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>536</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
         <v>547</v>
       </c>
-      <c r="C88" t="s">
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>535</v>
+      </c>
+      <c r="B89" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>536</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
         <v>549</v>
       </c>
-      <c r="C89" t="s">
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>535</v>
+      </c>
+      <c r="B90" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>536</v>
-      </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>551</v>
       </c>
-      <c r="C90" t="s">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>535</v>
+      </c>
+      <c r="B91" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>536</v>
-      </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
         <v>553</v>
       </c>
-      <c r="C91" t="s">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>535</v>
+      </c>
+      <c r="B92" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>536</v>
-      </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
         <v>555</v>
       </c>
-      <c r="C92" t="s">
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>535</v>
+      </c>
+      <c r="B93" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>536</v>
-      </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>557</v>
       </c>
-      <c r="C93" t="s">
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>535</v>
+      </c>
+      <c r="B94" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>536</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>559</v>
       </c>
-      <c r="C94" t="s">
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>535</v>
+      </c>
+      <c r="B95" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>536</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
         <v>561</v>
       </c>
-      <c r="C95" t="s">
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>535</v>
+      </c>
+      <c r="B96" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>536</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
         <v>563</v>
       </c>
-      <c r="C96" t="s">
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="B97" t="s">
         <v>565</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
         <v>566</v>
       </c>
-      <c r="C97" t="s">
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>564</v>
+      </c>
+      <c r="B98" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>565</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
         <v>568</v>
       </c>
-      <c r="C98" t="s">
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>564</v>
+      </c>
+      <c r="B99" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>565</v>
-      </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
         <v>570</v>
       </c>
-      <c r="C99" t="s">
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>564</v>
+      </c>
+      <c r="B100" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>565</v>
-      </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>572</v>
       </c>
-      <c r="C100" t="s">
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>564</v>
+      </c>
+      <c r="B101" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>565</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
         <v>574</v>
       </c>
-      <c r="C101" t="s">
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>564</v>
+      </c>
+      <c r="B102" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>565</v>
-      </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
         <v>576</v>
       </c>
-      <c r="C102" t="s">
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>564</v>
+      </c>
+      <c r="B103" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>565</v>
-      </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>578</v>
       </c>
-      <c r="C103" t="s">
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>564</v>
+      </c>
+      <c r="B104" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>565</v>
-      </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
         <v>580</v>
       </c>
-      <c r="C104" t="s">
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>564</v>
+      </c>
+      <c r="B105" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>565</v>
-      </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>582</v>
       </c>
-      <c r="C105" t="s">
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>564</v>
+      </c>
+      <c r="B106" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>565</v>
-      </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
         <v>584</v>
       </c>
-      <c r="C106" t="s">
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="B107" t="s">
         <v>586</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
         <v>587</v>
       </c>
-      <c r="C107" t="s">
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>585</v>
+      </c>
+      <c r="B108" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>586</v>
-      </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
         <v>589</v>
       </c>
-      <c r="C108" t="s">
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>585</v>
+      </c>
+      <c r="B109" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>586</v>
-      </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
         <v>591</v>
       </c>
-      <c r="C109" t="s">
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>585</v>
+      </c>
+      <c r="B110" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>586</v>
-      </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
         <v>593</v>
       </c>
-      <c r="C110" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C111" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>23</v>
       </c>
       <c r="B112" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C112" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>23</v>
       </c>
       <c r="B113" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C113" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>23</v>
       </c>
       <c r="B114" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C114" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>23</v>
       </c>
       <c r="B115" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C115" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>23</v>
       </c>
       <c r="B116" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C116" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>23</v>
       </c>
       <c r="B117" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C117" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>23</v>
       </c>
       <c r="B118" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C118" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>23</v>
       </c>
       <c r="B119" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C119" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>23</v>
       </c>
       <c r="B120" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C120" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>23</v>
       </c>
       <c r="B121" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C121" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>23</v>
       </c>
       <c r="B122" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C122" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>23</v>
       </c>
       <c r="B123" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C123" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>23</v>
       </c>
       <c r="B124" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C124" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -6594,33 +6630,33 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="106.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="106.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>527</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="C1" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>530</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>531</v>
-      </c>
-      <c r="C2" t="s">
-        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/xlsForms/Encuesta 1 Ficha Predial.xlsx
+++ b/xlsForms/Encuesta 1 Ficha Predial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Documents\GitHub\informesCenso\xlsForms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C6D006-8CAB-4C0B-BE6C-3E0B2C6F7B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E431131-B501-4EB9-82AC-B0E30FC868FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -2534,8 +2534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L182"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5242,7 +5242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C124"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
@@ -6626,8 +6626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04056629-4DE8-476D-A7F2-632CE361CE6E}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
